--- a/grupos/5AEM - Estadisticos 20211.xlsx
+++ b/grupos/5AEM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="160">
   <si>
     <t>Materia</t>
   </si>
@@ -203,19 +203,19 @@
     <t>Jiménez Nieto Enrique</t>
   </si>
   <si>
+    <t>Vargas Olvera Francisco Eduardo</t>
+  </si>
+  <si>
+    <t>Cruz Alejo José Armando</t>
+  </si>
+  <si>
+    <t>Ortega Valle Manuel</t>
+  </si>
+  <si>
+    <t>Aurioles Maldonado Luis Gustavo</t>
+  </si>
+  <si>
     <t>Medina Tolentino Elio</t>
-  </si>
-  <si>
-    <t>Vargas Olvera Francisco Eduardo</t>
-  </si>
-  <si>
-    <t>Cruz Alejo José Armando</t>
-  </si>
-  <si>
-    <t>Ortega Valle Manuel</t>
-  </si>
-  <si>
-    <t>Aurioles Maldonado Luis Gustavo</t>
   </si>
   <si>
     <t>NC</t>
@@ -1011,13 +1011,13 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -1074,13 +1074,13 @@
         <v>8</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AA4">
         <v>10</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AC4">
         <v>10</v>
@@ -1100,13 +1100,13 @@
         <v>8</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>10</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -1163,13 +1163,13 @@
         <v>8</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AA5">
         <v>10</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AC5">
         <v>10</v>
@@ -1189,13 +1189,13 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>10</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>10</v>
@@ -1252,13 +1252,13 @@
         <v>9</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AA6">
         <v>10</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AC6">
         <v>10</v>
@@ -1278,13 +1278,13 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>10</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H7">
         <v>10</v>
@@ -1341,13 +1341,13 @@
         <v>10</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AA7">
         <v>10</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AC7">
         <v>10</v>
@@ -1367,7 +1367,7 @@
         <v>-1</v>
       </c>
       <c r="E8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -1430,7 +1430,7 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA8">
         <v>-1</v>
@@ -1456,13 +1456,13 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F9">
         <v>8</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -1519,13 +1519,13 @@
         <v>7</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA9">
         <v>8</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AC9">
         <v>8</v>
@@ -1545,13 +1545,13 @@
         <v>10</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F10">
         <v>10</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -1608,13 +1608,13 @@
         <v>10</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AA10">
         <v>10</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AC10">
         <v>10</v>
@@ -1634,13 +1634,13 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
       <c r="G11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -1697,13 +1697,13 @@
         <v>9</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA11">
         <v>10</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AC11">
         <v>10</v>
@@ -1723,13 +1723,13 @@
         <v>8</v>
       </c>
       <c r="E12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F12">
         <v>10</v>
       </c>
       <c r="G12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -1786,13 +1786,13 @@
         <v>8</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AA12">
         <v>10</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AC12">
         <v>10</v>
@@ -1812,13 +1812,13 @@
         <v>10</v>
       </c>
       <c r="E13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F13">
         <v>10</v>
       </c>
       <c r="G13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H13">
         <v>10</v>
@@ -1875,13 +1875,13 @@
         <v>10</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AA13">
         <v>10</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AC13">
         <v>10</v>
@@ -1901,13 +1901,13 @@
         <v>7</v>
       </c>
       <c r="E14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F14">
         <v>-1</v>
       </c>
       <c r="G14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -1964,13 +1964,13 @@
         <v>7</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AC14">
         <v>10</v>
@@ -1990,7 +1990,7 @@
         <v>-1</v>
       </c>
       <c r="E15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F15">
         <v>-1</v>
@@ -2053,7 +2053,7 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA15">
         <v>-1</v>
@@ -2079,13 +2079,13 @@
         <v>9</v>
       </c>
       <c r="E16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F16">
         <v>10</v>
       </c>
       <c r="G16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H16">
         <v>10</v>
@@ -2142,13 +2142,13 @@
         <v>9</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AA16">
         <v>10</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AC16">
         <v>10</v>
@@ -2168,7 +2168,7 @@
         <v>-1</v>
       </c>
       <c r="E17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F17">
         <v>-1</v>
@@ -2231,7 +2231,7 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA17">
         <v>-1</v>
@@ -2257,7 +2257,7 @@
         <v>8</v>
       </c>
       <c r="E18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F18">
         <v>10</v>
@@ -2320,7 +2320,7 @@
         <v>8</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AA18">
         <v>10</v>
@@ -2346,13 +2346,13 @@
         <v>10</v>
       </c>
       <c r="E19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F19">
         <v>10</v>
       </c>
       <c r="G19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H19">
         <v>10</v>
@@ -2409,13 +2409,13 @@
         <v>10</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AA19">
         <v>10</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AC19">
         <v>10</v>
@@ -2435,13 +2435,13 @@
         <v>7</v>
       </c>
       <c r="E20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F20">
         <v>7</v>
       </c>
       <c r="G20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H20">
         <v>7</v>
@@ -2498,13 +2498,13 @@
         <v>7</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AA20">
         <v>7</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AC20">
         <v>7</v>
@@ -2524,7 +2524,7 @@
         <v>-1</v>
       </c>
       <c r="E21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F21">
         <v>-1</v>
@@ -2587,7 +2587,7 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA21">
         <v>-1</v>
@@ -2613,13 +2613,13 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F22">
         <v>10</v>
       </c>
       <c r="G22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H22">
         <v>10</v>
@@ -2676,13 +2676,13 @@
         <v>9</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AA22">
         <v>10</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AC22">
         <v>10</v>
@@ -2702,7 +2702,7 @@
         <v>-1</v>
       </c>
       <c r="E23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F23">
         <v>10</v>
@@ -2765,7 +2765,7 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AA23">
         <v>10</v>
@@ -2791,13 +2791,13 @@
         <v>8</v>
       </c>
       <c r="E24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F24">
         <v>10</v>
       </c>
       <c r="G24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H24">
         <v>10</v>
@@ -2854,13 +2854,13 @@
         <v>8</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AA24">
         <v>10</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AC24">
         <v>10</v>
@@ -2880,13 +2880,13 @@
         <v>8</v>
       </c>
       <c r="E25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F25">
         <v>10</v>
       </c>
       <c r="G25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H25">
         <v>10</v>
@@ -2943,13 +2943,13 @@
         <v>8</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AA25">
         <v>10</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AC25">
         <v>10</v>
@@ -2969,13 +2969,13 @@
         <v>-1</v>
       </c>
       <c r="E26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F26">
         <v>-1</v>
       </c>
       <c r="G26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H26">
         <v>-1</v>
@@ -3032,13 +3032,13 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -3058,7 +3058,7 @@
         <v>9</v>
       </c>
       <c r="E27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F27">
         <v>10</v>
@@ -3121,7 +3121,7 @@
         <v>9</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AA27">
         <v>10</v>
@@ -3147,7 +3147,7 @@
         <v>-1</v>
       </c>
       <c r="E28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F28">
         <v>-1</v>
@@ -3210,7 +3210,7 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA28">
         <v>-1</v>
@@ -3236,13 +3236,13 @@
         <v>10</v>
       </c>
       <c r="E29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F29">
         <v>10</v>
       </c>
       <c r="G29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H29">
         <v>10</v>
@@ -3299,13 +3299,13 @@
         <v>10</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AA29">
         <v>10</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AC29">
         <v>10</v>
@@ -3325,13 +3325,13 @@
         <v>9</v>
       </c>
       <c r="E30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F30">
         <v>10</v>
       </c>
       <c r="G30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H30">
         <v>10</v>
@@ -3388,13 +3388,13 @@
         <v>9</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AA30">
         <v>10</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AC30">
         <v>10</v>
@@ -3414,13 +3414,13 @@
         <v>8</v>
       </c>
       <c r="E31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F31">
         <v>10</v>
       </c>
       <c r="G31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H31">
         <v>10</v>
@@ -3477,13 +3477,13 @@
         <v>8</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AA31">
         <v>10</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AC31">
         <v>10</v>
@@ -3503,13 +3503,13 @@
         <v>10</v>
       </c>
       <c r="E32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F32">
         <v>10</v>
       </c>
       <c r="G32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H32">
         <v>10</v>
@@ -3566,13 +3566,13 @@
         <v>10</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AA32">
         <v>10</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AC32">
         <v>10</v>
@@ -3592,13 +3592,13 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F33">
         <v>10</v>
       </c>
       <c r="G33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H33">
         <v>10</v>
@@ -3655,13 +3655,13 @@
         <v>9</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AA33">
         <v>10</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AC33">
         <v>10</v>
@@ -3681,7 +3681,7 @@
         <v>-1</v>
       </c>
       <c r="E34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F34">
         <v>10</v>
@@ -3744,7 +3744,7 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA34">
         <v>10</v>
@@ -3770,13 +3770,13 @@
         <v>-1</v>
       </c>
       <c r="E35">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F35">
         <v>-1</v>
       </c>
       <c r="G35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H35">
         <v>-1</v>
@@ -3833,13 +3833,13 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AA35">
         <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3859,13 +3859,13 @@
         <v>10</v>
       </c>
       <c r="E36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F36">
         <v>10</v>
       </c>
       <c r="G36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H36">
         <v>10</v>
@@ -3922,13 +3922,13 @@
         <v>10</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA36">
         <v>10</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AC36">
         <v>10</v>
@@ -3948,7 +3948,7 @@
         <v>-1</v>
       </c>
       <c r="E37">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F37">
         <v>-1</v>
@@ -4011,7 +4011,7 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA37">
         <v>-1</v>
@@ -4037,13 +4037,13 @@
         <v>8</v>
       </c>
       <c r="E38">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F38">
         <v>10</v>
       </c>
       <c r="G38">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H38">
         <v>10</v>
@@ -4100,13 +4100,13 @@
         <v>8</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AA38">
         <v>10</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AC38">
         <v>10</v>
@@ -4126,7 +4126,7 @@
         <v>9</v>
       </c>
       <c r="E39">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F39">
         <v>10</v>
@@ -4189,7 +4189,7 @@
         <v>9</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AA39">
         <v>10</v>
@@ -4215,7 +4215,7 @@
         <v>-1</v>
       </c>
       <c r="E40">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F40">
         <v>-1</v>
@@ -4278,7 +4278,7 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA40">
         <v>-1</v>
@@ -4304,7 +4304,7 @@
         <v>-1</v>
       </c>
       <c r="E41">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F41">
         <v>-1</v>
@@ -4367,7 +4367,7 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA41">
         <v>-1</v>
@@ -4444,27 +4444,30 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
       <c r="I2">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>34.21</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>61</v>
@@ -4473,27 +4476,30 @@
         <v>38</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
+      <c r="H3">
+        <v>9.1</v>
+      </c>
       <c r="I3">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>34.21</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -4502,30 +4508,30 @@
         <v>38</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>65.79000000000001</v>
+        <v>68.42</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4">
-        <v>34.21</v>
+        <v>31.58</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>63</v>
@@ -4534,30 +4540,30 @@
         <v>38</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>68.42</v>
+        <v>71.05</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8.699999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="I5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5">
-        <v>31.58</v>
+        <v>28.95</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -4578,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I6">
         <v>11</v>
@@ -4589,7 +4595,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -4598,25 +4604,25 @@
         <v>38</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>73.68000000000001</v>
+      </c>
+      <c r="G7">
+        <v>26.32</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="F7">
-        <v>71.05</v>
-      </c>
-      <c r="G7">
+      <c r="J7">
         <v>0</v>
-      </c>
-      <c r="H7">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="I7">
-        <v>11</v>
-      </c>
-      <c r="J7">
-        <v>28.95</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4624,7 +4630,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8">
         <v>38</v>
@@ -4725,7 +4731,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4745,7 +4751,7 @@
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4765,7 +4771,7 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4785,7 +4791,7 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4805,7 +4811,7 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4825,7 +4831,7 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4865,7 +4871,7 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4885,7 +4891,7 @@
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4905,7 +4911,7 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4925,7 +4931,7 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4945,7 +4951,7 @@
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4965,7 +4971,7 @@
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5005,7 +5011,7 @@
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5025,7 +5031,7 @@
         <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5045,7 +5051,7 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5065,7 +5071,7 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5085,7 +5091,7 @@
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5105,7 +5111,7 @@
         <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5145,7 +5151,7 @@
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5165,7 +5171,7 @@
         <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5185,7 +5191,7 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5205,7 +5211,7 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5225,7 +5231,7 @@
         <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5245,7 +5251,7 @@
         <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5285,7 +5291,7 @@
         <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5305,7 +5311,7 @@
         <v>6</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5325,7 +5331,7 @@
         <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5345,7 +5351,7 @@
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5365,7 +5371,7 @@
         <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5385,7 +5391,7 @@
         <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5425,7 +5431,7 @@
         <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5445,7 +5451,7 @@
         <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -5465,7 +5471,7 @@
         <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -5485,7 +5491,7 @@
         <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -5505,7 +5511,7 @@
         <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -5525,7 +5531,7 @@
         <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -5565,7 +5571,7 @@
         <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -5585,7 +5591,7 @@
         <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -5605,7 +5611,7 @@
         <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -5625,7 +5631,7 @@
         <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -5645,7 +5651,7 @@
         <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -5665,7 +5671,7 @@
         <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -5705,7 +5711,7 @@
         <v>5</v>
       </c>
       <c r="F52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -5725,7 +5731,7 @@
         <v>6</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -5745,7 +5751,7 @@
         <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -5765,7 +5771,7 @@
         <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -5785,7 +5791,7 @@
         <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -5805,7 +5811,7 @@
         <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5845,7 +5851,7 @@
         <v>5</v>
       </c>
       <c r="F59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5865,7 +5871,7 @@
         <v>6</v>
       </c>
       <c r="F60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5885,7 +5891,7 @@
         <v>8</v>
       </c>
       <c r="F61" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -5905,7 +5911,7 @@
         <v>7</v>
       </c>
       <c r="F62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -5925,7 +5931,7 @@
         <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -5945,7 +5951,7 @@
         <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -5985,7 +5991,7 @@
         <v>5</v>
       </c>
       <c r="F66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -6005,7 +6011,7 @@
         <v>6</v>
       </c>
       <c r="F67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -6025,7 +6031,7 @@
         <v>8</v>
       </c>
       <c r="F68" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -6045,7 +6051,7 @@
         <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -6065,7 +6071,7 @@
         <v>9</v>
       </c>
       <c r="F70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -6085,7 +6091,7 @@
         <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -6125,7 +6131,7 @@
         <v>5</v>
       </c>
       <c r="F73" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -6145,7 +6151,7 @@
         <v>6</v>
       </c>
       <c r="F74" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -6165,7 +6171,7 @@
         <v>8</v>
       </c>
       <c r="F75" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -6185,7 +6191,7 @@
         <v>7</v>
       </c>
       <c r="F76" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -6205,7 +6211,7 @@
         <v>9</v>
       </c>
       <c r="F77" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -6225,7 +6231,7 @@
         <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -6265,7 +6271,7 @@
         <v>5</v>
       </c>
       <c r="F80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -6285,7 +6291,7 @@
         <v>6</v>
       </c>
       <c r="F81" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -6305,7 +6311,7 @@
         <v>8</v>
       </c>
       <c r="F82" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -6325,7 +6331,7 @@
         <v>7</v>
       </c>
       <c r="F83" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -6345,7 +6351,7 @@
         <v>9</v>
       </c>
       <c r="F84" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -6365,7 +6371,7 @@
         <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -6405,7 +6411,7 @@
         <v>5</v>
       </c>
       <c r="F87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -6425,7 +6431,7 @@
         <v>6</v>
       </c>
       <c r="F88" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -6445,7 +6451,7 @@
         <v>8</v>
       </c>
       <c r="F89" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -6465,7 +6471,7 @@
         <v>7</v>
       </c>
       <c r="F90" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -6485,7 +6491,7 @@
         <v>9</v>
       </c>
       <c r="F91" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -6505,7 +6511,7 @@
         <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -6545,7 +6551,7 @@
         <v>5</v>
       </c>
       <c r="F94" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -6565,7 +6571,7 @@
         <v>6</v>
       </c>
       <c r="F95" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -6585,7 +6591,7 @@
         <v>8</v>
       </c>
       <c r="F96" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -6605,7 +6611,7 @@
         <v>7</v>
       </c>
       <c r="F97" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -6625,7 +6631,7 @@
         <v>9</v>
       </c>
       <c r="F98" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -6645,7 +6651,7 @@
         <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -6685,7 +6691,7 @@
         <v>5</v>
       </c>
       <c r="F101" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -6705,7 +6711,7 @@
         <v>6</v>
       </c>
       <c r="F102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -6725,7 +6731,7 @@
         <v>8</v>
       </c>
       <c r="F103" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -6745,7 +6751,7 @@
         <v>7</v>
       </c>
       <c r="F104" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -6765,7 +6771,7 @@
         <v>9</v>
       </c>
       <c r="F105" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -6785,7 +6791,7 @@
         <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -6825,7 +6831,7 @@
         <v>5</v>
       </c>
       <c r="F108" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -6845,7 +6851,7 @@
         <v>6</v>
       </c>
       <c r="F109" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -6865,7 +6871,7 @@
         <v>8</v>
       </c>
       <c r="F110" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -6885,7 +6891,7 @@
         <v>7</v>
       </c>
       <c r="F111" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -6905,7 +6911,7 @@
         <v>9</v>
       </c>
       <c r="F112" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -6925,7 +6931,7 @@
         <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -6965,7 +6971,7 @@
         <v>5</v>
       </c>
       <c r="F115" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -6985,7 +6991,7 @@
         <v>6</v>
       </c>
       <c r="F116" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -7005,7 +7011,7 @@
         <v>8</v>
       </c>
       <c r="F117" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -7025,7 +7031,7 @@
         <v>7</v>
       </c>
       <c r="F118" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -7045,7 +7051,7 @@
         <v>9</v>
       </c>
       <c r="F119" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -7065,7 +7071,7 @@
         <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -7105,7 +7111,7 @@
         <v>5</v>
       </c>
       <c r="F122" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -7125,7 +7131,7 @@
         <v>6</v>
       </c>
       <c r="F123" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -7145,7 +7151,7 @@
         <v>8</v>
       </c>
       <c r="F124" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -7165,7 +7171,7 @@
         <v>7</v>
       </c>
       <c r="F125" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -7185,7 +7191,7 @@
         <v>9</v>
       </c>
       <c r="F126" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -7205,7 +7211,7 @@
         <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -7245,7 +7251,7 @@
         <v>5</v>
       </c>
       <c r="F129" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -7265,7 +7271,7 @@
         <v>6</v>
       </c>
       <c r="F130" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -7285,7 +7291,7 @@
         <v>8</v>
       </c>
       <c r="F131" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -7305,7 +7311,7 @@
         <v>7</v>
       </c>
       <c r="F132" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -7325,7 +7331,7 @@
         <v>9</v>
       </c>
       <c r="F133" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -7345,7 +7351,7 @@
         <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -7385,7 +7391,7 @@
         <v>5</v>
       </c>
       <c r="F136" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -7405,7 +7411,7 @@
         <v>6</v>
       </c>
       <c r="F137" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -7425,7 +7431,7 @@
         <v>8</v>
       </c>
       <c r="F138" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -7445,7 +7451,7 @@
         <v>7</v>
       </c>
       <c r="F139" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -7465,7 +7471,7 @@
         <v>9</v>
       </c>
       <c r="F140" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -7485,7 +7491,7 @@
         <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -7525,7 +7531,7 @@
         <v>5</v>
       </c>
       <c r="F143" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -7545,7 +7551,7 @@
         <v>6</v>
       </c>
       <c r="F144" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -7565,7 +7571,7 @@
         <v>8</v>
       </c>
       <c r="F145" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -7585,7 +7591,7 @@
         <v>7</v>
       </c>
       <c r="F146" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -7605,7 +7611,7 @@
         <v>9</v>
       </c>
       <c r="F147" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -7625,7 +7631,7 @@
         <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -7665,7 +7671,7 @@
         <v>5</v>
       </c>
       <c r="F150" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -7685,7 +7691,7 @@
         <v>6</v>
       </c>
       <c r="F151" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -7705,7 +7711,7 @@
         <v>8</v>
       </c>
       <c r="F152" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -7725,7 +7731,7 @@
         <v>7</v>
       </c>
       <c r="F153" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -7745,7 +7751,7 @@
         <v>9</v>
       </c>
       <c r="F154" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -7765,7 +7771,7 @@
         <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -7805,7 +7811,7 @@
         <v>5</v>
       </c>
       <c r="F157" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -7825,7 +7831,7 @@
         <v>6</v>
       </c>
       <c r="F158" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -7845,7 +7851,7 @@
         <v>8</v>
       </c>
       <c r="F159" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -7865,7 +7871,7 @@
         <v>7</v>
       </c>
       <c r="F160" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -7885,7 +7891,7 @@
         <v>9</v>
       </c>
       <c r="F161" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -7905,7 +7911,7 @@
         <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -7945,7 +7951,7 @@
         <v>5</v>
       </c>
       <c r="F164" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -7965,7 +7971,7 @@
         <v>6</v>
       </c>
       <c r="F165" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -7985,7 +7991,7 @@
         <v>8</v>
       </c>
       <c r="F166" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -8005,7 +8011,7 @@
         <v>7</v>
       </c>
       <c r="F167" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -8025,7 +8031,7 @@
         <v>9</v>
       </c>
       <c r="F168" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -8045,7 +8051,7 @@
         <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -8085,7 +8091,7 @@
         <v>5</v>
       </c>
       <c r="F171" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -8105,7 +8111,7 @@
         <v>6</v>
       </c>
       <c r="F172" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -8125,7 +8131,7 @@
         <v>8</v>
       </c>
       <c r="F173" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -8145,7 +8151,7 @@
         <v>7</v>
       </c>
       <c r="F174" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -8165,7 +8171,7 @@
         <v>9</v>
       </c>
       <c r="F175" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -8185,7 +8191,7 @@
         <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -8225,7 +8231,7 @@
         <v>5</v>
       </c>
       <c r="F178" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -8245,7 +8251,7 @@
         <v>6</v>
       </c>
       <c r="F179" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -8265,7 +8271,7 @@
         <v>8</v>
       </c>
       <c r="F180" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -8285,7 +8291,7 @@
         <v>7</v>
       </c>
       <c r="F181" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -8305,7 +8311,7 @@
         <v>9</v>
       </c>
       <c r="F182" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -8325,7 +8331,7 @@
         <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -8365,7 +8371,7 @@
         <v>5</v>
       </c>
       <c r="F185" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -8385,7 +8391,7 @@
         <v>6</v>
       </c>
       <c r="F186" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -8405,7 +8411,7 @@
         <v>8</v>
       </c>
       <c r="F187" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -8425,7 +8431,7 @@
         <v>7</v>
       </c>
       <c r="F188" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -8445,7 +8451,7 @@
         <v>9</v>
       </c>
       <c r="F189" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -8465,7 +8471,7 @@
         <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -8505,7 +8511,7 @@
         <v>5</v>
       </c>
       <c r="F192" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -8525,7 +8531,7 @@
         <v>6</v>
       </c>
       <c r="F193" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -8545,7 +8551,7 @@
         <v>8</v>
       </c>
       <c r="F194" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -8565,7 +8571,7 @@
         <v>7</v>
       </c>
       <c r="F195" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -8585,7 +8591,7 @@
         <v>9</v>
       </c>
       <c r="F196" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -8605,7 +8611,7 @@
         <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -8645,7 +8651,7 @@
         <v>5</v>
       </c>
       <c r="F199" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -8665,7 +8671,7 @@
         <v>6</v>
       </c>
       <c r="F200" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -8685,7 +8691,7 @@
         <v>8</v>
       </c>
       <c r="F201" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -8705,7 +8711,7 @@
         <v>7</v>
       </c>
       <c r="F202" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -8725,7 +8731,7 @@
         <v>9</v>
       </c>
       <c r="F203" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -8745,7 +8751,7 @@
         <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -8785,7 +8791,7 @@
         <v>5</v>
       </c>
       <c r="F206" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -8805,7 +8811,7 @@
         <v>6</v>
       </c>
       <c r="F207" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -8825,7 +8831,7 @@
         <v>8</v>
       </c>
       <c r="F208" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -8845,7 +8851,7 @@
         <v>7</v>
       </c>
       <c r="F209" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -8865,7 +8871,7 @@
         <v>9</v>
       </c>
       <c r="F210" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -8885,7 +8891,7 @@
         <v>11</v>
       </c>
       <c r="F211" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -8925,7 +8931,7 @@
         <v>5</v>
       </c>
       <c r="F213" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -8945,7 +8951,7 @@
         <v>6</v>
       </c>
       <c r="F214" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -8965,7 +8971,7 @@
         <v>8</v>
       </c>
       <c r="F215" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -8985,7 +8991,7 @@
         <v>7</v>
       </c>
       <c r="F216" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -9005,7 +9011,7 @@
         <v>9</v>
       </c>
       <c r="F217" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -9025,7 +9031,7 @@
         <v>11</v>
       </c>
       <c r="F218" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -9065,7 +9071,7 @@
         <v>5</v>
       </c>
       <c r="F220" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -9085,7 +9091,7 @@
         <v>6</v>
       </c>
       <c r="F221" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -9105,7 +9111,7 @@
         <v>8</v>
       </c>
       <c r="F222" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -9125,7 +9131,7 @@
         <v>7</v>
       </c>
       <c r="F223" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -9145,7 +9151,7 @@
         <v>9</v>
       </c>
       <c r="F224" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -9165,7 +9171,7 @@
         <v>11</v>
       </c>
       <c r="F225" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -9205,7 +9211,7 @@
         <v>5</v>
       </c>
       <c r="F227" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -9225,7 +9231,7 @@
         <v>6</v>
       </c>
       <c r="F228" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -9245,7 +9251,7 @@
         <v>8</v>
       </c>
       <c r="F229" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -9265,7 +9271,7 @@
         <v>7</v>
       </c>
       <c r="F230" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -9285,7 +9291,7 @@
         <v>9</v>
       </c>
       <c r="F231" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -9305,7 +9311,7 @@
         <v>11</v>
       </c>
       <c r="F232" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -9345,7 +9351,7 @@
         <v>5</v>
       </c>
       <c r="F234" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -9365,7 +9371,7 @@
         <v>6</v>
       </c>
       <c r="F235" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -9385,7 +9391,7 @@
         <v>8</v>
       </c>
       <c r="F236" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -9405,7 +9411,7 @@
         <v>7</v>
       </c>
       <c r="F237" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -9425,7 +9431,7 @@
         <v>9</v>
       </c>
       <c r="F238" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -9445,7 +9451,7 @@
         <v>11</v>
       </c>
       <c r="F239" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -9485,7 +9491,7 @@
         <v>5</v>
       </c>
       <c r="F241" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -9505,7 +9511,7 @@
         <v>6</v>
       </c>
       <c r="F242" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -9525,7 +9531,7 @@
         <v>8</v>
       </c>
       <c r="F243" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -9545,7 +9551,7 @@
         <v>7</v>
       </c>
       <c r="F244" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -9565,7 +9571,7 @@
         <v>9</v>
       </c>
       <c r="F245" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -9585,7 +9591,7 @@
         <v>11</v>
       </c>
       <c r="F246" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -9625,7 +9631,7 @@
         <v>5</v>
       </c>
       <c r="F248" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -9645,7 +9651,7 @@
         <v>6</v>
       </c>
       <c r="F249" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -9665,7 +9671,7 @@
         <v>8</v>
       </c>
       <c r="F250" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -9685,7 +9691,7 @@
         <v>7</v>
       </c>
       <c r="F251" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -9705,7 +9711,7 @@
         <v>9</v>
       </c>
       <c r="F252" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -9725,7 +9731,7 @@
         <v>11</v>
       </c>
       <c r="F253" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -9765,7 +9771,7 @@
         <v>5</v>
       </c>
       <c r="F255" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -9785,7 +9791,7 @@
         <v>6</v>
       </c>
       <c r="F256" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -9805,7 +9811,7 @@
         <v>8</v>
       </c>
       <c r="F257" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -9825,7 +9831,7 @@
         <v>7</v>
       </c>
       <c r="F258" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -9845,7 +9851,7 @@
         <v>9</v>
       </c>
       <c r="F259" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -9865,7 +9871,7 @@
         <v>11</v>
       </c>
       <c r="F260" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -9905,7 +9911,7 @@
         <v>5</v>
       </c>
       <c r="F262" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -9925,7 +9931,7 @@
         <v>6</v>
       </c>
       <c r="F263" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -9945,7 +9951,7 @@
         <v>8</v>
       </c>
       <c r="F264" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -9965,7 +9971,7 @@
         <v>7</v>
       </c>
       <c r="F265" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -9985,7 +9991,7 @@
         <v>9</v>
       </c>
       <c r="F266" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -10005,7 +10011,7 @@
         <v>11</v>
       </c>
       <c r="F267" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -10695,7 +10701,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10730,22 +10736,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920005</v>
+        <v>19330051920003</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -10753,16 +10759,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920005</v>
+        <v>19330051920017</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -10776,22 +10782,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920004</v>
+        <v>18330051920168</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -10799,16 +10805,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920004</v>
+        <v>18330061460390</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -10822,39 +10828,39 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920006</v>
+        <v>19330051920035</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920006</v>
+        <v>19330051920038</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -10868,875 +10874,24 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920007</v>
+        <v>19330051920037</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
         <v>61</v>
       </c>
       <c r="G8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>19330051920007</v>
-      </c>
-      <c r="B9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>19330051920008</v>
-      </c>
-      <c r="B10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>19330051920008</v>
-      </c>
-      <c r="B11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>19330051920015</v>
-      </c>
-      <c r="B12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>19330051920015</v>
-      </c>
-      <c r="B13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>19330051920012</v>
-      </c>
-      <c r="B14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>19330051920012</v>
-      </c>
-      <c r="B15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>19330051920011</v>
-      </c>
-      <c r="B16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>19330051920011</v>
-      </c>
-      <c r="B17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>19330051920009</v>
-      </c>
-      <c r="B18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>19330051920009</v>
-      </c>
-      <c r="B19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>19330051920017</v>
-      </c>
-      <c r="B20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" t="s">
-        <v>137</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>19330051920017</v>
-      </c>
-      <c r="B21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D21" t="s">
-        <v>137</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>19330051920018</v>
-      </c>
-      <c r="B22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" t="s">
-        <v>113</v>
-      </c>
-      <c r="D22" t="s">
-        <v>138</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>19330051920018</v>
-      </c>
-      <c r="B23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" t="s">
-        <v>138</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>19330051920020</v>
-      </c>
-      <c r="B24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" t="s">
-        <v>141</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>19330051920020</v>
-      </c>
-      <c r="B25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" t="s">
-        <v>141</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>19330051920021</v>
-      </c>
-      <c r="B26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" t="s">
-        <v>143</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>19330051920021</v>
-      </c>
-      <c r="B27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" t="s">
-        <v>143</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>19330051920023</v>
-      </c>
-      <c r="B28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" t="s">
-        <v>116</v>
-      </c>
-      <c r="D28" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" t="s">
-        <v>61</v>
-      </c>
-      <c r="G28">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>19330051920023</v>
-      </c>
-      <c r="B29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D29" t="s">
-        <v>144</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G29">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>18330061460390</v>
-      </c>
-      <c r="B30" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" t="s">
-        <v>117</v>
-      </c>
-      <c r="D30" t="s">
-        <v>146</v>
-      </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>18330061460390</v>
-      </c>
-      <c r="B31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" t="s">
-        <v>146</v>
-      </c>
-      <c r="E31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G31">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>19330051920025</v>
-      </c>
-      <c r="B32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" t="s">
-        <v>147</v>
-      </c>
-      <c r="E32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" t="s">
-        <v>61</v>
-      </c>
-      <c r="G32">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>19330051920025</v>
-      </c>
-      <c r="B33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" t="s">
-        <v>147</v>
-      </c>
-      <c r="E33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>19330051920027</v>
-      </c>
-      <c r="B34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" t="s">
-        <v>148</v>
-      </c>
-      <c r="E34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" t="s">
-        <v>61</v>
-      </c>
-      <c r="G34">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>19330051920027</v>
-      </c>
-      <c r="B35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" t="s">
-        <v>148</v>
-      </c>
-      <c r="E35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" t="s">
-        <v>60</v>
-      </c>
-      <c r="G35">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36">
-        <v>19330051920029</v>
-      </c>
-      <c r="B36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" t="s">
-        <v>150</v>
-      </c>
-      <c r="E36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" t="s">
-        <v>61</v>
-      </c>
-      <c r="G36">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37">
-        <v>19330051920029</v>
-      </c>
-      <c r="B37" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" t="s">
-        <v>150</v>
-      </c>
-      <c r="E37" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" t="s">
-        <v>60</v>
-      </c>
-      <c r="G37">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38">
-        <v>19330051920030</v>
-      </c>
-      <c r="B38" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" t="s">
-        <v>151</v>
-      </c>
-      <c r="E38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" t="s">
-        <v>61</v>
-      </c>
-      <c r="G38">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39">
-        <v>19330051920030</v>
-      </c>
-      <c r="B39" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" t="s">
-        <v>151</v>
-      </c>
-      <c r="E39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" t="s">
-        <v>60</v>
-      </c>
-      <c r="G39">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40">
-        <v>19330051920031</v>
-      </c>
-      <c r="B40" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" t="s">
-        <v>120</v>
-      </c>
-      <c r="D40" t="s">
-        <v>153</v>
-      </c>
-      <c r="E40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" t="s">
-        <v>61</v>
-      </c>
-      <c r="G40">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41">
-        <v>19330051920031</v>
-      </c>
-      <c r="B41" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" t="s">
-        <v>120</v>
-      </c>
-      <c r="D41" t="s">
-        <v>153</v>
-      </c>
-      <c r="E41" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" t="s">
-        <v>60</v>
-      </c>
-      <c r="G41">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42">
-        <v>19330051920035</v>
-      </c>
-      <c r="B42" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" t="s">
-        <v>154</v>
-      </c>
-      <c r="E42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" t="s">
-        <v>61</v>
-      </c>
-      <c r="G42">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43">
-        <v>19330051920035</v>
-      </c>
-      <c r="B43" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43" t="s">
-        <v>154</v>
-      </c>
-      <c r="E43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" t="s">
-        <v>60</v>
-      </c>
-      <c r="G43">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44">
-        <v>19330051920038</v>
-      </c>
-      <c r="B44" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" t="s">
-        <v>121</v>
-      </c>
-      <c r="D44" t="s">
-        <v>156</v>
-      </c>
-      <c r="E44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" t="s">
-        <v>61</v>
-      </c>
-      <c r="G44">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45">
-        <v>19330051920038</v>
-      </c>
-      <c r="B45" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" t="s">
-        <v>121</v>
-      </c>
-      <c r="D45" t="s">
-        <v>156</v>
-      </c>
-      <c r="E45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/5AEM - Estadisticos 20211.xlsx
+++ b/grupos/5AEM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="160">
   <si>
     <t>Materia</t>
   </si>
@@ -200,12 +200,12 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Vargas Olvera Francisco Eduardo</t>
+  </si>
+  <si>
     <t>Jiménez Nieto Enrique</t>
   </si>
   <si>
-    <t>Vargas Olvera Francisco Eduardo</t>
-  </si>
-  <si>
     <t>Cruz Alejo José Armando</t>
   </si>
   <si>
@@ -233,6 +233,150 @@
     <t>ALVAREZ</t>
   </si>
   <si>
+    <t>BONILLA</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>ENCARNACION</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>SERRANO</t>
+  </si>
+  <si>
+    <t>TEPOLE</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>VALENCIA</t>
+  </si>
+  <si>
+    <t>VALDERRAMA</t>
+  </si>
+  <si>
+    <t>VEGA</t>
+  </si>
+  <si>
+    <t>VILLEGAS</t>
+  </si>
+  <si>
+    <t>MORAN</t>
+  </si>
+  <si>
+    <t>BAUTISTA</t>
+  </si>
+  <si>
+    <t>BERISTAIN</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>SORIANO</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>CHAVEZ</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>CHICO</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>MENCIAS</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL</t>
+  </si>
+  <si>
+    <t>FERNANDO DE JESUS</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE</t>
+  </si>
+  <si>
+    <t>JESSICA</t>
+  </si>
+  <si>
+    <t>JESUS</t>
+  </si>
+  <si>
+    <t>YAIR ANTONIO</t>
+  </si>
+  <si>
+    <t>ESTEFANY SARAI</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>NATANAEL</t>
+  </si>
+  <si>
+    <t>ELIDETH</t>
+  </si>
+  <si>
+    <t>YAMIL ELIEL</t>
+  </si>
+  <si>
+    <t>JOHNNY</t>
+  </si>
+  <si>
+    <t>ERICK ORLANDO</t>
+  </si>
+  <si>
+    <t>MAURICIO</t>
+  </si>
+  <si>
+    <t>EMILIO</t>
+  </si>
+  <si>
+    <t>ALAN EDUARDO</t>
+  </si>
+  <si>
+    <t>IVAN</t>
+  </si>
+  <si>
     <t>ARIAS</t>
   </si>
   <si>
@@ -242,84 +386,30 @@
     <t>BALDEZ</t>
   </si>
   <si>
-    <t>BONILLA</t>
-  </si>
-  <si>
     <t>CARRASCO</t>
   </si>
   <si>
     <t>CLEMENTE</t>
   </si>
   <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>ENCARNACION</t>
-  </si>
-  <si>
     <t>ELIZALDE</t>
   </si>
   <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
     <t>MORALES</t>
   </si>
   <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
     <t>RIOS</t>
   </si>
   <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
-    <t>SERRANO</t>
-  </si>
-  <si>
     <t>SEGURA</t>
   </si>
   <si>
     <t>TZANAHUA</t>
   </si>
   <si>
-    <t>TEPOLE</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>VALENCIA</t>
-  </si>
-  <si>
-    <t>VALDERRAMA</t>
-  </si>
-  <si>
-    <t>VEGA</t>
-  </si>
-  <si>
-    <t>VILLEGAS</t>
-  </si>
-  <si>
-    <t>MORAN</t>
-  </si>
-  <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
@@ -329,21 +419,12 @@
     <t>IXTACUA</t>
   </si>
   <si>
-    <t>BAUTISTA</t>
-  </si>
-  <si>
     <t>SANDOVAL</t>
   </si>
   <si>
     <t>PALAGOT</t>
   </si>
   <si>
-    <t>BERISTAIN</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
     <t>BELTRAN</t>
   </si>
   <si>
@@ -353,69 +434,27 @@
     <t>FLORES</t>
   </si>
   <si>
-    <t>SORIANO</t>
-  </si>
-  <si>
     <t>MELENDEZ</t>
   </si>
   <si>
     <t>ARELLANO</t>
   </si>
   <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
     <t>YEPEZ</t>
   </si>
   <si>
-    <t>CHAVEZ</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>MUÑOZ</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
     <t>MELLADO</t>
   </si>
   <si>
-    <t>CHICO</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>MENCIAS</t>
-  </si>
-  <si>
-    <t>JOSE MANUEL</t>
-  </si>
-  <si>
     <t>CARLOS ALBERTO</t>
   </si>
   <si>
     <t>ALEX SAUL</t>
   </si>
   <si>
-    <t>FERNANDO DE JESUS</t>
-  </si>
-  <si>
     <t>CRISTIAN ANTONIO</t>
   </si>
   <si>
-    <t>IVAN</t>
-  </si>
-  <si>
-    <t>LUIS ENRIQUE</t>
-  </si>
-  <si>
-    <t>JESSICA</t>
-  </si>
-  <si>
     <t>ALBERTO</t>
   </si>
   <si>
@@ -428,76 +467,37 @@
     <t>GIOVANNA</t>
   </si>
   <si>
-    <t>JESUS</t>
-  </si>
-  <si>
     <t>SAUL ALEJANDRO</t>
   </si>
   <si>
     <t>LOGAN ZURIEL</t>
   </si>
   <si>
-    <t>YAIR ANTONIO</t>
-  </si>
-  <si>
-    <t>ESTEFANY SARAI</t>
-  </si>
-  <si>
     <t>HUGO</t>
   </si>
   <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
     <t>JAIR</t>
   </si>
   <si>
     <t>JOSE AUGUSTO</t>
   </si>
   <si>
-    <t>ISRAEL</t>
-  </si>
-  <si>
-    <t>NATANAEL</t>
-  </si>
-  <si>
     <t>DIANA AMEYALLI</t>
   </si>
   <si>
     <t>ANUAR ANTONIO</t>
   </si>
   <si>
-    <t>ELIDETH</t>
-  </si>
-  <si>
     <t>GAEL</t>
   </si>
   <si>
     <t>ARLETH</t>
   </si>
   <si>
-    <t>YAMIL ELIEL</t>
-  </si>
-  <si>
     <t>JAHIR</t>
   </si>
   <si>
     <t>JOCELYN BERENICE</t>
-  </si>
-  <si>
-    <t>JOHNNY</t>
-  </si>
-  <si>
-    <t>ERICK ORLANDO</t>
-  </si>
-  <si>
-    <t>MAURICIO</t>
-  </si>
-  <si>
-    <t>EMILIO</t>
-  </si>
-  <si>
-    <t>ALAN EDUARDO</t>
   </si>
 </sst>
 </file>
@@ -2263,7 +2263,7 @@
         <v>10</v>
       </c>
       <c r="G18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H18">
         <v>10</v>
@@ -2326,7 +2326,7 @@
         <v>10</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AC18">
         <v>10</v>
@@ -4435,7 +4435,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
@@ -4456,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="I2">
         <v>13</v>
@@ -4467,7 +4467,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>61</v>
@@ -4476,13 +4476,13 @@
         <v>38</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>65.79000000000001</v>
+        <v>68.42</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -4491,10 +4491,10 @@
         <v>9.1</v>
       </c>
       <c r="I3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3">
-        <v>34.21</v>
+        <v>31.58</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4664,7 +4664,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F267"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4702,33 +4702,33 @@
         <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19330051920003</v>
+        <v>19330051920417</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>61</v>
@@ -4736,56 +4736,56 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920003</v>
+        <v>19330051920417</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920003</v>
+        <v>19330051920417</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920003</v>
+        <v>19330051920417</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -4796,16 +4796,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920003</v>
+        <v>19330051920417</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -4816,16 +4816,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920003</v>
+        <v>19330051920417</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -4836,56 +4836,56 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920005</v>
+        <v>19330051920014</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920005</v>
+        <v>19330051920014</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920005</v>
+        <v>19330051920014</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -4896,59 +4896,59 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920005</v>
+        <v>19330051920014</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920005</v>
+        <v>19330051920014</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920005</v>
+        <v>19330051920014</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
         <v>64</v>
@@ -4956,39 +4956,39 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920005</v>
+        <v>19330051920016</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920004</v>
+        <v>19330051920016</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
         <v>60</v>
@@ -4996,119 +4996,119 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920004</v>
+        <v>19330051920016</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920004</v>
+        <v>19330051920016</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920004</v>
+        <v>19330051920016</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920004</v>
+        <v>19330051920010</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920004</v>
+        <v>19330051920010</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920004</v>
+        <v>19330051920010</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
         <v>64</v>
@@ -5116,39 +5116,39 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920006</v>
+        <v>18330051920168</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920006</v>
+        <v>19330051920422</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
         <v>61</v>
@@ -5156,79 +5156,79 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920006</v>
+        <v>19330051920422</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920006</v>
+        <v>19330051920422</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920006</v>
+        <v>19330051920422</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920006</v>
+        <v>19330051920422</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
         <v>64</v>
@@ -5236,159 +5236,159 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920006</v>
+        <v>19330051920022</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920417</v>
+        <v>19330051920022</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920417</v>
+        <v>19330051920022</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D31" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="E31" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920417</v>
+        <v>19330051920026</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920417</v>
+        <v>19330051920026</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>19330051920417</v>
+        <v>19330051920026</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D34" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19330051920417</v>
+        <v>19330051920026</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D35" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>19330051920417</v>
+        <v>19330051920026</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D36" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F36" t="s">
         <v>64</v>
@@ -5396,39 +5396,39 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>19330051920007</v>
+        <v>19330051920026</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D37" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>19330051920007</v>
+        <v>18330061460390</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F38" t="s">
         <v>61</v>
@@ -5436,79 +5436,79 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>19330051920007</v>
+        <v>19330051920024</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D39" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>19330051920007</v>
+        <v>19330051920024</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D40" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>19330051920007</v>
+        <v>19330051920024</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D41" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>19330051920007</v>
+        <v>19330051920024</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D42" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
         <v>64</v>
@@ -5516,39 +5516,39 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>19330051920007</v>
+        <v>19330051920032</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D43" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>19330051920008</v>
+        <v>19330051920032</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D44" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F44" t="s">
         <v>60</v>
@@ -5556,119 +5556,119 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>19330051920008</v>
+        <v>19330051920032</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D45" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="E45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>19330051920008</v>
+        <v>19330051920032</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C46" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D46" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="E46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>19330051920008</v>
+        <v>19330051920034</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D47" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>19330051920008</v>
+        <v>19330051920034</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D48" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>19330051920008</v>
+        <v>19330051920034</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D49" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>19330051920008</v>
+        <v>19330051920034</v>
       </c>
       <c r="B50" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D50" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F50" t="s">
         <v>64</v>
@@ -5676,39 +5676,39 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>19330051920014</v>
+        <v>19330051920034</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C51" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D51" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>19330051920014</v>
+        <v>19330051920038</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C52" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D52" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="E52" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F52" t="s">
         <v>61</v>
@@ -5716,196 +5716,196 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>19330051920014</v>
+        <v>19330051920037</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C53" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D53" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>19330051920014</v>
+        <v>19330051920036</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C54" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D54" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>19330051920014</v>
+        <v>19330051920036</v>
       </c>
       <c r="B55" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C55" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D55" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E55" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F55" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>19330051920014</v>
+        <v>19330051920036</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C56" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D56" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E56" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>19330051920014</v>
+        <v>19330051920036</v>
       </c>
       <c r="B57" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D57" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>19330051920016</v>
+        <v>19330051920036</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="D58" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>19330051920016</v>
+        <v>19330051920036</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="D59" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E59" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>19330051920016</v>
+        <v>19330051920039</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C60" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D60" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E60" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>19330051920016</v>
+        <v>19330051920039</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C61" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D61" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F61" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>19330051920016</v>
+        <v>19330051920039</v>
       </c>
       <c r="B62" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C62" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D62" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E62" t="s">
         <v>7</v>
@@ -5916,16 +5916,16 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>19330051920016</v>
+        <v>19330051920039</v>
       </c>
       <c r="B63" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C63" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D63" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E63" t="s">
         <v>9</v>
@@ -5936,16 +5936,16 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>19330051920016</v>
+        <v>19330051920039</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C64" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D64" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
@@ -5956,56 +5956,56 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>19330051920015</v>
+        <v>19330051920040</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C65" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D65" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E65" t="s">
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>19330051920015</v>
+        <v>19330051920040</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C66" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D66" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E66" t="s">
         <v>5</v>
       </c>
       <c r="F66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>19330051920015</v>
+        <v>19330051920040</v>
       </c>
       <c r="B67" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C67" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D67" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E67" t="s">
         <v>6</v>
@@ -6016,4001 +6016,61 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>19330051920015</v>
+        <v>19330051920040</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C68" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D68" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F68" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>19330051920015</v>
+        <v>19330051920040</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C69" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D69" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E69" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F69" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>19330051920015</v>
+        <v>19330051920040</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C70" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D70" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E70" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>19330051920015</v>
-      </c>
-      <c r="B71" t="s">
-        <v>79</v>
-      </c>
-      <c r="C71" t="s">
-        <v>108</v>
-      </c>
-      <c r="D71" t="s">
-        <v>132</v>
-      </c>
-      <c r="E71" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>19330051920012</v>
-      </c>
-      <c r="B72" t="s">
-        <v>80</v>
-      </c>
-      <c r="C72" t="s">
-        <v>109</v>
-      </c>
-      <c r="D72" t="s">
-        <v>133</v>
-      </c>
-      <c r="E72" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>19330051920012</v>
-      </c>
-      <c r="B73" t="s">
-        <v>80</v>
-      </c>
-      <c r="C73" t="s">
-        <v>109</v>
-      </c>
-      <c r="D73" t="s">
-        <v>133</v>
-      </c>
-      <c r="E73" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>19330051920012</v>
-      </c>
-      <c r="B74" t="s">
-        <v>80</v>
-      </c>
-      <c r="C74" t="s">
-        <v>109</v>
-      </c>
-      <c r="D74" t="s">
-        <v>133</v>
-      </c>
-      <c r="E74" t="s">
-        <v>6</v>
-      </c>
-      <c r="F74" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>19330051920012</v>
-      </c>
-      <c r="B75" t="s">
-        <v>80</v>
-      </c>
-      <c r="C75" t="s">
-        <v>109</v>
-      </c>
-      <c r="D75" t="s">
-        <v>133</v>
-      </c>
-      <c r="E75" t="s">
-        <v>8</v>
-      </c>
-      <c r="F75" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>19330051920012</v>
-      </c>
-      <c r="B76" t="s">
-        <v>80</v>
-      </c>
-      <c r="C76" t="s">
-        <v>109</v>
-      </c>
-      <c r="D76" t="s">
-        <v>133</v>
-      </c>
-      <c r="E76" t="s">
-        <v>7</v>
-      </c>
-      <c r="F76" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>19330051920012</v>
-      </c>
-      <c r="B77" t="s">
-        <v>80</v>
-      </c>
-      <c r="C77" t="s">
-        <v>109</v>
-      </c>
-      <c r="D77" t="s">
-        <v>133</v>
-      </c>
-      <c r="E77" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>19330051920012</v>
-      </c>
-      <c r="B78" t="s">
-        <v>80</v>
-      </c>
-      <c r="C78" t="s">
-        <v>109</v>
-      </c>
-      <c r="D78" t="s">
-        <v>133</v>
-      </c>
-      <c r="E78" t="s">
-        <v>11</v>
-      </c>
-      <c r="F78" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>19330051920011</v>
-      </c>
-      <c r="B79" t="s">
-        <v>80</v>
-      </c>
-      <c r="C79" t="s">
-        <v>109</v>
-      </c>
-      <c r="D79" t="s">
-        <v>134</v>
-      </c>
-      <c r="E79" t="s">
-        <v>10</v>
-      </c>
-      <c r="F79" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>19330051920011</v>
-      </c>
-      <c r="B80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C80" t="s">
-        <v>109</v>
-      </c>
-      <c r="D80" t="s">
-        <v>134</v>
-      </c>
-      <c r="E80" t="s">
-        <v>5</v>
-      </c>
-      <c r="F80" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>19330051920011</v>
-      </c>
-      <c r="B81" t="s">
-        <v>80</v>
-      </c>
-      <c r="C81" t="s">
-        <v>109</v>
-      </c>
-      <c r="D81" t="s">
-        <v>134</v>
-      </c>
-      <c r="E81" t="s">
-        <v>6</v>
-      </c>
-      <c r="F81" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>19330051920011</v>
-      </c>
-      <c r="B82" t="s">
-        <v>80</v>
-      </c>
-      <c r="C82" t="s">
-        <v>109</v>
-      </c>
-      <c r="D82" t="s">
-        <v>134</v>
-      </c>
-      <c r="E82" t="s">
-        <v>8</v>
-      </c>
-      <c r="F82" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>19330051920011</v>
-      </c>
-      <c r="B83" t="s">
-        <v>80</v>
-      </c>
-      <c r="C83" t="s">
-        <v>109</v>
-      </c>
-      <c r="D83" t="s">
-        <v>134</v>
-      </c>
-      <c r="E83" t="s">
-        <v>7</v>
-      </c>
-      <c r="F83" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>19330051920011</v>
-      </c>
-      <c r="B84" t="s">
-        <v>80</v>
-      </c>
-      <c r="C84" t="s">
-        <v>109</v>
-      </c>
-      <c r="D84" t="s">
-        <v>134</v>
-      </c>
-      <c r="E84" t="s">
-        <v>9</v>
-      </c>
-      <c r="F84" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>19330051920011</v>
-      </c>
-      <c r="B85" t="s">
-        <v>80</v>
-      </c>
-      <c r="C85" t="s">
-        <v>109</v>
-      </c>
-      <c r="D85" t="s">
-        <v>134</v>
-      </c>
-      <c r="E85" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>19330051920009</v>
-      </c>
-      <c r="B86" t="s">
-        <v>80</v>
-      </c>
-      <c r="C86" t="s">
-        <v>110</v>
-      </c>
-      <c r="D86" t="s">
-        <v>135</v>
-      </c>
-      <c r="E86" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>19330051920009</v>
-      </c>
-      <c r="B87" t="s">
-        <v>80</v>
-      </c>
-      <c r="C87" t="s">
-        <v>110</v>
-      </c>
-      <c r="D87" t="s">
-        <v>135</v>
-      </c>
-      <c r="E87" t="s">
-        <v>5</v>
-      </c>
-      <c r="F87" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>19330051920009</v>
-      </c>
-      <c r="B88" t="s">
-        <v>80</v>
-      </c>
-      <c r="C88" t="s">
-        <v>110</v>
-      </c>
-      <c r="D88" t="s">
-        <v>135</v>
-      </c>
-      <c r="E88" t="s">
-        <v>6</v>
-      </c>
-      <c r="F88" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>19330051920009</v>
-      </c>
-      <c r="B89" t="s">
-        <v>80</v>
-      </c>
-      <c r="C89" t="s">
-        <v>110</v>
-      </c>
-      <c r="D89" t="s">
-        <v>135</v>
-      </c>
-      <c r="E89" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>19330051920009</v>
-      </c>
-      <c r="B90" t="s">
-        <v>80</v>
-      </c>
-      <c r="C90" t="s">
-        <v>110</v>
-      </c>
-      <c r="D90" t="s">
-        <v>135</v>
-      </c>
-      <c r="E90" t="s">
-        <v>7</v>
-      </c>
-      <c r="F90" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>19330051920009</v>
-      </c>
-      <c r="B91" t="s">
-        <v>80</v>
-      </c>
-      <c r="C91" t="s">
-        <v>110</v>
-      </c>
-      <c r="D91" t="s">
-        <v>135</v>
-      </c>
-      <c r="E91" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>19330051920009</v>
-      </c>
-      <c r="B92" t="s">
-        <v>80</v>
-      </c>
-      <c r="C92" t="s">
-        <v>110</v>
-      </c>
-      <c r="D92" t="s">
-        <v>135</v>
-      </c>
-      <c r="E92" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>19330051920010</v>
-      </c>
-      <c r="B93" t="s">
-        <v>80</v>
-      </c>
-      <c r="C93" t="s">
-        <v>111</v>
-      </c>
-      <c r="D93" t="s">
-        <v>136</v>
-      </c>
-      <c r="E93" t="s">
-        <v>10</v>
-      </c>
-      <c r="F93" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>19330051920010</v>
-      </c>
-      <c r="B94" t="s">
-        <v>80</v>
-      </c>
-      <c r="C94" t="s">
-        <v>111</v>
-      </c>
-      <c r="D94" t="s">
-        <v>136</v>
-      </c>
-      <c r="E94" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>19330051920010</v>
-      </c>
-      <c r="B95" t="s">
-        <v>80</v>
-      </c>
-      <c r="C95" t="s">
-        <v>111</v>
-      </c>
-      <c r="D95" t="s">
-        <v>136</v>
-      </c>
-      <c r="E95" t="s">
-        <v>6</v>
-      </c>
-      <c r="F95" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>19330051920010</v>
-      </c>
-      <c r="B96" t="s">
-        <v>80</v>
-      </c>
-      <c r="C96" t="s">
-        <v>111</v>
-      </c>
-      <c r="D96" t="s">
-        <v>136</v>
-      </c>
-      <c r="E96" t="s">
-        <v>8</v>
-      </c>
-      <c r="F96" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>19330051920010</v>
-      </c>
-      <c r="B97" t="s">
-        <v>80</v>
-      </c>
-      <c r="C97" t="s">
-        <v>111</v>
-      </c>
-      <c r="D97" t="s">
-        <v>136</v>
-      </c>
-      <c r="E97" t="s">
-        <v>7</v>
-      </c>
-      <c r="F97" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>19330051920010</v>
-      </c>
-      <c r="B98" t="s">
-        <v>80</v>
-      </c>
-      <c r="C98" t="s">
-        <v>111</v>
-      </c>
-      <c r="D98" t="s">
-        <v>136</v>
-      </c>
-      <c r="E98" t="s">
-        <v>9</v>
-      </c>
-      <c r="F98" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>19330051920010</v>
-      </c>
-      <c r="B99" t="s">
-        <v>80</v>
-      </c>
-      <c r="C99" t="s">
-        <v>111</v>
-      </c>
-      <c r="D99" t="s">
-        <v>136</v>
-      </c>
-      <c r="E99" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>19330051920017</v>
-      </c>
-      <c r="B100" t="s">
-        <v>81</v>
-      </c>
-      <c r="C100" t="s">
-        <v>112</v>
-      </c>
-      <c r="D100" t="s">
-        <v>137</v>
-      </c>
-      <c r="E100" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>19330051920017</v>
-      </c>
-      <c r="B101" t="s">
-        <v>81</v>
-      </c>
-      <c r="C101" t="s">
-        <v>112</v>
-      </c>
-      <c r="D101" t="s">
-        <v>137</v>
-      </c>
-      <c r="E101" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>19330051920017</v>
-      </c>
-      <c r="B102" t="s">
-        <v>81</v>
-      </c>
-      <c r="C102" t="s">
-        <v>112</v>
-      </c>
-      <c r="D102" t="s">
-        <v>137</v>
-      </c>
-      <c r="E102" t="s">
-        <v>6</v>
-      </c>
-      <c r="F102" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>19330051920017</v>
-      </c>
-      <c r="B103" t="s">
-        <v>81</v>
-      </c>
-      <c r="C103" t="s">
-        <v>112</v>
-      </c>
-      <c r="D103" t="s">
-        <v>137</v>
-      </c>
-      <c r="E103" t="s">
-        <v>8</v>
-      </c>
-      <c r="F103" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>19330051920017</v>
-      </c>
-      <c r="B104" t="s">
-        <v>81</v>
-      </c>
-      <c r="C104" t="s">
-        <v>112</v>
-      </c>
-      <c r="D104" t="s">
-        <v>137</v>
-      </c>
-      <c r="E104" t="s">
-        <v>7</v>
-      </c>
-      <c r="F104" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>19330051920017</v>
-      </c>
-      <c r="B105" t="s">
-        <v>81</v>
-      </c>
-      <c r="C105" t="s">
-        <v>112</v>
-      </c>
-      <c r="D105" t="s">
-        <v>137</v>
-      </c>
-      <c r="E105" t="s">
-        <v>9</v>
-      </c>
-      <c r="F105" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>19330051920017</v>
-      </c>
-      <c r="B106" t="s">
-        <v>81</v>
-      </c>
-      <c r="C106" t="s">
-        <v>112</v>
-      </c>
-      <c r="D106" t="s">
-        <v>137</v>
-      </c>
-      <c r="E106" t="s">
-        <v>11</v>
-      </c>
-      <c r="F106" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>19330051920018</v>
-      </c>
-      <c r="B107" t="s">
-        <v>82</v>
-      </c>
-      <c r="C107" t="s">
-        <v>113</v>
-      </c>
-      <c r="D107" t="s">
-        <v>138</v>
-      </c>
-      <c r="E107" t="s">
-        <v>10</v>
-      </c>
-      <c r="F107" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>19330051920018</v>
-      </c>
-      <c r="B108" t="s">
-        <v>82</v>
-      </c>
-      <c r="C108" t="s">
-        <v>113</v>
-      </c>
-      <c r="D108" t="s">
-        <v>138</v>
-      </c>
-      <c r="E108" t="s">
-        <v>5</v>
-      </c>
-      <c r="F108" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>19330051920018</v>
-      </c>
-      <c r="B109" t="s">
-        <v>82</v>
-      </c>
-      <c r="C109" t="s">
-        <v>113</v>
-      </c>
-      <c r="D109" t="s">
-        <v>138</v>
-      </c>
-      <c r="E109" t="s">
-        <v>6</v>
-      </c>
-      <c r="F109" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>19330051920018</v>
-      </c>
-      <c r="B110" t="s">
-        <v>82</v>
-      </c>
-      <c r="C110" t="s">
-        <v>113</v>
-      </c>
-      <c r="D110" t="s">
-        <v>138</v>
-      </c>
-      <c r="E110" t="s">
-        <v>8</v>
-      </c>
-      <c r="F110" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>19330051920018</v>
-      </c>
-      <c r="B111" t="s">
-        <v>82</v>
-      </c>
-      <c r="C111" t="s">
-        <v>113</v>
-      </c>
-      <c r="D111" t="s">
-        <v>138</v>
-      </c>
-      <c r="E111" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>19330051920018</v>
-      </c>
-      <c r="B112" t="s">
-        <v>82</v>
-      </c>
-      <c r="C112" t="s">
-        <v>113</v>
-      </c>
-      <c r="D112" t="s">
-        <v>138</v>
-      </c>
-      <c r="E112" t="s">
-        <v>9</v>
-      </c>
-      <c r="F112" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>19330051920018</v>
-      </c>
-      <c r="B113" t="s">
-        <v>82</v>
-      </c>
-      <c r="C113" t="s">
-        <v>113</v>
-      </c>
-      <c r="D113" t="s">
-        <v>138</v>
-      </c>
-      <c r="E113" t="s">
-        <v>11</v>
-      </c>
-      <c r="F113" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>18330051920168</v>
-      </c>
-      <c r="B114" t="s">
-        <v>83</v>
-      </c>
-      <c r="C114" t="s">
-        <v>86</v>
-      </c>
-      <c r="D114" t="s">
-        <v>139</v>
-      </c>
-      <c r="E114" t="s">
-        <v>10</v>
-      </c>
-      <c r="F114" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>18330051920168</v>
-      </c>
-      <c r="B115" t="s">
-        <v>83</v>
-      </c>
-      <c r="C115" t="s">
-        <v>86</v>
-      </c>
-      <c r="D115" t="s">
-        <v>139</v>
-      </c>
-      <c r="E115" t="s">
-        <v>5</v>
-      </c>
-      <c r="F115" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>18330051920168</v>
-      </c>
-      <c r="B116" t="s">
-        <v>83</v>
-      </c>
-      <c r="C116" t="s">
-        <v>86</v>
-      </c>
-      <c r="D116" t="s">
-        <v>139</v>
-      </c>
-      <c r="E116" t="s">
-        <v>6</v>
-      </c>
-      <c r="F116" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>18330051920168</v>
-      </c>
-      <c r="B117" t="s">
-        <v>83</v>
-      </c>
-      <c r="C117" t="s">
-        <v>86</v>
-      </c>
-      <c r="D117" t="s">
-        <v>139</v>
-      </c>
-      <c r="E117" t="s">
-        <v>8</v>
-      </c>
-      <c r="F117" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>18330051920168</v>
-      </c>
-      <c r="B118" t="s">
-        <v>83</v>
-      </c>
-      <c r="C118" t="s">
-        <v>86</v>
-      </c>
-      <c r="D118" t="s">
-        <v>139</v>
-      </c>
-      <c r="E118" t="s">
-        <v>7</v>
-      </c>
-      <c r="F118" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>18330051920168</v>
-      </c>
-      <c r="B119" t="s">
-        <v>83</v>
-      </c>
-      <c r="C119" t="s">
-        <v>86</v>
-      </c>
-      <c r="D119" t="s">
-        <v>139</v>
-      </c>
-      <c r="E119" t="s">
-        <v>9</v>
-      </c>
-      <c r="F119" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>18330051920168</v>
-      </c>
-      <c r="B120" t="s">
-        <v>83</v>
-      </c>
-      <c r="C120" t="s">
-        <v>86</v>
-      </c>
-      <c r="D120" t="s">
-        <v>139</v>
-      </c>
-      <c r="E120" t="s">
-        <v>11</v>
-      </c>
-      <c r="F120" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>19330051920422</v>
-      </c>
-      <c r="B121" t="s">
-        <v>84</v>
-      </c>
-      <c r="C121" t="s">
-        <v>81</v>
-      </c>
-      <c r="D121" t="s">
-        <v>140</v>
-      </c>
-      <c r="E121" t="s">
-        <v>10</v>
-      </c>
-      <c r="F121" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>19330051920422</v>
-      </c>
-      <c r="B122" t="s">
-        <v>84</v>
-      </c>
-      <c r="C122" t="s">
-        <v>81</v>
-      </c>
-      <c r="D122" t="s">
-        <v>140</v>
-      </c>
-      <c r="E122" t="s">
-        <v>5</v>
-      </c>
-      <c r="F122" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>19330051920422</v>
-      </c>
-      <c r="B123" t="s">
-        <v>84</v>
-      </c>
-      <c r="C123" t="s">
-        <v>81</v>
-      </c>
-      <c r="D123" t="s">
-        <v>140</v>
-      </c>
-      <c r="E123" t="s">
-        <v>6</v>
-      </c>
-      <c r="F123" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>19330051920422</v>
-      </c>
-      <c r="B124" t="s">
-        <v>84</v>
-      </c>
-      <c r="C124" t="s">
-        <v>81</v>
-      </c>
-      <c r="D124" t="s">
-        <v>140</v>
-      </c>
-      <c r="E124" t="s">
-        <v>8</v>
-      </c>
-      <c r="F124" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>19330051920422</v>
-      </c>
-      <c r="B125" t="s">
-        <v>84</v>
-      </c>
-      <c r="C125" t="s">
-        <v>81</v>
-      </c>
-      <c r="D125" t="s">
-        <v>140</v>
-      </c>
-      <c r="E125" t="s">
-        <v>7</v>
-      </c>
-      <c r="F125" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>19330051920422</v>
-      </c>
-      <c r="B126" t="s">
-        <v>84</v>
-      </c>
-      <c r="C126" t="s">
-        <v>81</v>
-      </c>
-      <c r="D126" t="s">
-        <v>140</v>
-      </c>
-      <c r="E126" t="s">
-        <v>9</v>
-      </c>
-      <c r="F126" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>19330051920422</v>
-      </c>
-      <c r="B127" t="s">
-        <v>84</v>
-      </c>
-      <c r="C127" t="s">
-        <v>81</v>
-      </c>
-      <c r="D127" t="s">
-        <v>140</v>
-      </c>
-      <c r="E127" t="s">
-        <v>11</v>
-      </c>
-      <c r="F127" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>19330051920020</v>
-      </c>
-      <c r="B128" t="s">
-        <v>84</v>
-      </c>
-      <c r="C128" t="s">
-        <v>89</v>
-      </c>
-      <c r="D128" t="s">
-        <v>141</v>
-      </c>
-      <c r="E128" t="s">
-        <v>10</v>
-      </c>
-      <c r="F128" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>19330051920020</v>
-      </c>
-      <c r="B129" t="s">
-        <v>84</v>
-      </c>
-      <c r="C129" t="s">
-        <v>89</v>
-      </c>
-      <c r="D129" t="s">
-        <v>141</v>
-      </c>
-      <c r="E129" t="s">
-        <v>5</v>
-      </c>
-      <c r="F129" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>19330051920020</v>
-      </c>
-      <c r="B130" t="s">
-        <v>84</v>
-      </c>
-      <c r="C130" t="s">
-        <v>89</v>
-      </c>
-      <c r="D130" t="s">
-        <v>141</v>
-      </c>
-      <c r="E130" t="s">
-        <v>6</v>
-      </c>
-      <c r="F130" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>19330051920020</v>
-      </c>
-      <c r="B131" t="s">
-        <v>84</v>
-      </c>
-      <c r="C131" t="s">
-        <v>89</v>
-      </c>
-      <c r="D131" t="s">
-        <v>141</v>
-      </c>
-      <c r="E131" t="s">
-        <v>8</v>
-      </c>
-      <c r="F131" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>19330051920020</v>
-      </c>
-      <c r="B132" t="s">
-        <v>84</v>
-      </c>
-      <c r="C132" t="s">
-        <v>89</v>
-      </c>
-      <c r="D132" t="s">
-        <v>141</v>
-      </c>
-      <c r="E132" t="s">
-        <v>7</v>
-      </c>
-      <c r="F132" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>19330051920020</v>
-      </c>
-      <c r="B133" t="s">
-        <v>84</v>
-      </c>
-      <c r="C133" t="s">
-        <v>89</v>
-      </c>
-      <c r="D133" t="s">
-        <v>141</v>
-      </c>
-      <c r="E133" t="s">
-        <v>9</v>
-      </c>
-      <c r="F133" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>19330051920020</v>
-      </c>
-      <c r="B134" t="s">
-        <v>84</v>
-      </c>
-      <c r="C134" t="s">
-        <v>89</v>
-      </c>
-      <c r="D134" t="s">
-        <v>141</v>
-      </c>
-      <c r="E134" t="s">
-        <v>11</v>
-      </c>
-      <c r="F134" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>19330051920022</v>
-      </c>
-      <c r="B135" t="s">
-        <v>84</v>
-      </c>
-      <c r="C135" t="s">
-        <v>114</v>
-      </c>
-      <c r="D135" t="s">
-        <v>142</v>
-      </c>
-      <c r="E135" t="s">
-        <v>10</v>
-      </c>
-      <c r="F135" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>19330051920022</v>
-      </c>
-      <c r="B136" t="s">
-        <v>84</v>
-      </c>
-      <c r="C136" t="s">
-        <v>114</v>
-      </c>
-      <c r="D136" t="s">
-        <v>142</v>
-      </c>
-      <c r="E136" t="s">
-        <v>5</v>
-      </c>
-      <c r="F136" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>19330051920022</v>
-      </c>
-      <c r="B137" t="s">
-        <v>84</v>
-      </c>
-      <c r="C137" t="s">
-        <v>114</v>
-      </c>
-      <c r="D137" t="s">
-        <v>142</v>
-      </c>
-      <c r="E137" t="s">
-        <v>6</v>
-      </c>
-      <c r="F137" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>19330051920022</v>
-      </c>
-      <c r="B138" t="s">
-        <v>84</v>
-      </c>
-      <c r="C138" t="s">
-        <v>114</v>
-      </c>
-      <c r="D138" t="s">
-        <v>142</v>
-      </c>
-      <c r="E138" t="s">
-        <v>8</v>
-      </c>
-      <c r="F138" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>19330051920022</v>
-      </c>
-      <c r="B139" t="s">
-        <v>84</v>
-      </c>
-      <c r="C139" t="s">
-        <v>114</v>
-      </c>
-      <c r="D139" t="s">
-        <v>142</v>
-      </c>
-      <c r="E139" t="s">
-        <v>7</v>
-      </c>
-      <c r="F139" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>19330051920022</v>
-      </c>
-      <c r="B140" t="s">
-        <v>84</v>
-      </c>
-      <c r="C140" t="s">
-        <v>114</v>
-      </c>
-      <c r="D140" t="s">
-        <v>142</v>
-      </c>
-      <c r="E140" t="s">
-        <v>9</v>
-      </c>
-      <c r="F140" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>19330051920022</v>
-      </c>
-      <c r="B141" t="s">
-        <v>84</v>
-      </c>
-      <c r="C141" t="s">
-        <v>114</v>
-      </c>
-      <c r="D141" t="s">
-        <v>142</v>
-      </c>
-      <c r="E141" t="s">
-        <v>11</v>
-      </c>
-      <c r="F141" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>19330051920021</v>
-      </c>
-      <c r="B142" t="s">
-        <v>84</v>
-      </c>
-      <c r="C142" t="s">
-        <v>115</v>
-      </c>
-      <c r="D142" t="s">
-        <v>143</v>
-      </c>
-      <c r="E142" t="s">
-        <v>10</v>
-      </c>
-      <c r="F142" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>19330051920021</v>
-      </c>
-      <c r="B143" t="s">
-        <v>84</v>
-      </c>
-      <c r="C143" t="s">
-        <v>115</v>
-      </c>
-      <c r="D143" t="s">
-        <v>143</v>
-      </c>
-      <c r="E143" t="s">
-        <v>5</v>
-      </c>
-      <c r="F143" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>19330051920021</v>
-      </c>
-      <c r="B144" t="s">
-        <v>84</v>
-      </c>
-      <c r="C144" t="s">
-        <v>115</v>
-      </c>
-      <c r="D144" t="s">
-        <v>143</v>
-      </c>
-      <c r="E144" t="s">
-        <v>6</v>
-      </c>
-      <c r="F144" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>19330051920021</v>
-      </c>
-      <c r="B145" t="s">
-        <v>84</v>
-      </c>
-      <c r="C145" t="s">
-        <v>115</v>
-      </c>
-      <c r="D145" t="s">
-        <v>143</v>
-      </c>
-      <c r="E145" t="s">
-        <v>8</v>
-      </c>
-      <c r="F145" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>19330051920021</v>
-      </c>
-      <c r="B146" t="s">
-        <v>84</v>
-      </c>
-      <c r="C146" t="s">
-        <v>115</v>
-      </c>
-      <c r="D146" t="s">
-        <v>143</v>
-      </c>
-      <c r="E146" t="s">
-        <v>7</v>
-      </c>
-      <c r="F146" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <v>19330051920021</v>
-      </c>
-      <c r="B147" t="s">
-        <v>84</v>
-      </c>
-      <c r="C147" t="s">
-        <v>115</v>
-      </c>
-      <c r="D147" t="s">
-        <v>143</v>
-      </c>
-      <c r="E147" t="s">
-        <v>9</v>
-      </c>
-      <c r="F147" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148">
-        <v>19330051920021</v>
-      </c>
-      <c r="B148" t="s">
-        <v>84</v>
-      </c>
-      <c r="C148" t="s">
-        <v>115</v>
-      </c>
-      <c r="D148" t="s">
-        <v>143</v>
-      </c>
-      <c r="E148" t="s">
-        <v>11</v>
-      </c>
-      <c r="F148" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149">
-        <v>19330051920023</v>
-      </c>
-      <c r="B149" t="s">
-        <v>85</v>
-      </c>
-      <c r="C149" t="s">
-        <v>116</v>
-      </c>
-      <c r="D149" t="s">
-        <v>144</v>
-      </c>
-      <c r="E149" t="s">
-        <v>10</v>
-      </c>
-      <c r="F149" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150">
-        <v>19330051920023</v>
-      </c>
-      <c r="B150" t="s">
-        <v>85</v>
-      </c>
-      <c r="C150" t="s">
-        <v>116</v>
-      </c>
-      <c r="D150" t="s">
-        <v>144</v>
-      </c>
-      <c r="E150" t="s">
-        <v>5</v>
-      </c>
-      <c r="F150" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151">
-        <v>19330051920023</v>
-      </c>
-      <c r="B151" t="s">
-        <v>85</v>
-      </c>
-      <c r="C151" t="s">
-        <v>116</v>
-      </c>
-      <c r="D151" t="s">
-        <v>144</v>
-      </c>
-      <c r="E151" t="s">
-        <v>6</v>
-      </c>
-      <c r="F151" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152">
-        <v>19330051920023</v>
-      </c>
-      <c r="B152" t="s">
-        <v>85</v>
-      </c>
-      <c r="C152" t="s">
-        <v>116</v>
-      </c>
-      <c r="D152" t="s">
-        <v>144</v>
-      </c>
-      <c r="E152" t="s">
-        <v>8</v>
-      </c>
-      <c r="F152" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153">
-        <v>19330051920023</v>
-      </c>
-      <c r="B153" t="s">
-        <v>85</v>
-      </c>
-      <c r="C153" t="s">
-        <v>116</v>
-      </c>
-      <c r="D153" t="s">
-        <v>144</v>
-      </c>
-      <c r="E153" t="s">
-        <v>7</v>
-      </c>
-      <c r="F153" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154">
-        <v>19330051920023</v>
-      </c>
-      <c r="B154" t="s">
-        <v>85</v>
-      </c>
-      <c r="C154" t="s">
-        <v>116</v>
-      </c>
-      <c r="D154" t="s">
-        <v>144</v>
-      </c>
-      <c r="E154" t="s">
-        <v>9</v>
-      </c>
-      <c r="F154" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155">
-        <v>19330051920023</v>
-      </c>
-      <c r="B155" t="s">
-        <v>85</v>
-      </c>
-      <c r="C155" t="s">
-        <v>116</v>
-      </c>
-      <c r="D155" t="s">
-        <v>144</v>
-      </c>
-      <c r="E155" t="s">
-        <v>11</v>
-      </c>
-      <c r="F155" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>19330051920026</v>
-      </c>
-      <c r="B156" t="s">
-        <v>86</v>
-      </c>
-      <c r="C156" t="s">
-        <v>116</v>
-      </c>
-      <c r="D156" t="s">
-        <v>145</v>
-      </c>
-      <c r="E156" t="s">
-        <v>10</v>
-      </c>
-      <c r="F156" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157">
-        <v>19330051920026</v>
-      </c>
-      <c r="B157" t="s">
-        <v>86</v>
-      </c>
-      <c r="C157" t="s">
-        <v>116</v>
-      </c>
-      <c r="D157" t="s">
-        <v>145</v>
-      </c>
-      <c r="E157" t="s">
-        <v>5</v>
-      </c>
-      <c r="F157" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158">
-        <v>19330051920026</v>
-      </c>
-      <c r="B158" t="s">
-        <v>86</v>
-      </c>
-      <c r="C158" t="s">
-        <v>116</v>
-      </c>
-      <c r="D158" t="s">
-        <v>145</v>
-      </c>
-      <c r="E158" t="s">
-        <v>6</v>
-      </c>
-      <c r="F158" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159">
-        <v>19330051920026</v>
-      </c>
-      <c r="B159" t="s">
-        <v>86</v>
-      </c>
-      <c r="C159" t="s">
-        <v>116</v>
-      </c>
-      <c r="D159" t="s">
-        <v>145</v>
-      </c>
-      <c r="E159" t="s">
-        <v>8</v>
-      </c>
-      <c r="F159" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160">
-        <v>19330051920026</v>
-      </c>
-      <c r="B160" t="s">
-        <v>86</v>
-      </c>
-      <c r="C160" t="s">
-        <v>116</v>
-      </c>
-      <c r="D160" t="s">
-        <v>145</v>
-      </c>
-      <c r="E160" t="s">
-        <v>7</v>
-      </c>
-      <c r="F160" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161">
-        <v>19330051920026</v>
-      </c>
-      <c r="B161" t="s">
-        <v>86</v>
-      </c>
-      <c r="C161" t="s">
-        <v>116</v>
-      </c>
-      <c r="D161" t="s">
-        <v>145</v>
-      </c>
-      <c r="E161" t="s">
-        <v>9</v>
-      </c>
-      <c r="F161" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162">
-        <v>19330051920026</v>
-      </c>
-      <c r="B162" t="s">
-        <v>86</v>
-      </c>
-      <c r="C162" t="s">
-        <v>116</v>
-      </c>
-      <c r="D162" t="s">
-        <v>145</v>
-      </c>
-      <c r="E162" t="s">
-        <v>11</v>
-      </c>
-      <c r="F162" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163">
-        <v>18330061460390</v>
-      </c>
-      <c r="B163" t="s">
-        <v>87</v>
-      </c>
-      <c r="C163" t="s">
-        <v>117</v>
-      </c>
-      <c r="D163" t="s">
-        <v>146</v>
-      </c>
-      <c r="E163" t="s">
-        <v>10</v>
-      </c>
-      <c r="F163" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164">
-        <v>18330061460390</v>
-      </c>
-      <c r="B164" t="s">
-        <v>87</v>
-      </c>
-      <c r="C164" t="s">
-        <v>117</v>
-      </c>
-      <c r="D164" t="s">
-        <v>146</v>
-      </c>
-      <c r="E164" t="s">
-        <v>5</v>
-      </c>
-      <c r="F164" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165">
-        <v>18330061460390</v>
-      </c>
-      <c r="B165" t="s">
-        <v>87</v>
-      </c>
-      <c r="C165" t="s">
-        <v>117</v>
-      </c>
-      <c r="D165" t="s">
-        <v>146</v>
-      </c>
-      <c r="E165" t="s">
-        <v>6</v>
-      </c>
-      <c r="F165" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166">
-        <v>18330061460390</v>
-      </c>
-      <c r="B166" t="s">
-        <v>87</v>
-      </c>
-      <c r="C166" t="s">
-        <v>117</v>
-      </c>
-      <c r="D166" t="s">
-        <v>146</v>
-      </c>
-      <c r="E166" t="s">
-        <v>8</v>
-      </c>
-      <c r="F166" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167">
-        <v>18330061460390</v>
-      </c>
-      <c r="B167" t="s">
-        <v>87</v>
-      </c>
-      <c r="C167" t="s">
-        <v>117</v>
-      </c>
-      <c r="D167" t="s">
-        <v>146</v>
-      </c>
-      <c r="E167" t="s">
-        <v>7</v>
-      </c>
-      <c r="F167" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168">
-        <v>18330061460390</v>
-      </c>
-      <c r="B168" t="s">
-        <v>87</v>
-      </c>
-      <c r="C168" t="s">
-        <v>117</v>
-      </c>
-      <c r="D168" t="s">
-        <v>146</v>
-      </c>
-      <c r="E168" t="s">
-        <v>9</v>
-      </c>
-      <c r="F168" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169">
-        <v>18330061460390</v>
-      </c>
-      <c r="B169" t="s">
-        <v>87</v>
-      </c>
-      <c r="C169" t="s">
-        <v>117</v>
-      </c>
-      <c r="D169" t="s">
-        <v>146</v>
-      </c>
-      <c r="E169" t="s">
-        <v>11</v>
-      </c>
-      <c r="F169" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170">
-        <v>19330051920025</v>
-      </c>
-      <c r="B170" t="s">
-        <v>86</v>
-      </c>
-      <c r="C170" t="s">
-        <v>110</v>
-      </c>
-      <c r="D170" t="s">
-        <v>147</v>
-      </c>
-      <c r="E170" t="s">
-        <v>10</v>
-      </c>
-      <c r="F170" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171">
-        <v>19330051920025</v>
-      </c>
-      <c r="B171" t="s">
-        <v>86</v>
-      </c>
-      <c r="C171" t="s">
-        <v>110</v>
-      </c>
-      <c r="D171" t="s">
-        <v>147</v>
-      </c>
-      <c r="E171" t="s">
-        <v>5</v>
-      </c>
-      <c r="F171" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172">
-        <v>19330051920025</v>
-      </c>
-      <c r="B172" t="s">
-        <v>86</v>
-      </c>
-      <c r="C172" t="s">
-        <v>110</v>
-      </c>
-      <c r="D172" t="s">
-        <v>147</v>
-      </c>
-      <c r="E172" t="s">
-        <v>6</v>
-      </c>
-      <c r="F172" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173">
-        <v>19330051920025</v>
-      </c>
-      <c r="B173" t="s">
-        <v>86</v>
-      </c>
-      <c r="C173" t="s">
-        <v>110</v>
-      </c>
-      <c r="D173" t="s">
-        <v>147</v>
-      </c>
-      <c r="E173" t="s">
-        <v>8</v>
-      </c>
-      <c r="F173" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174">
-        <v>19330051920025</v>
-      </c>
-      <c r="B174" t="s">
-        <v>86</v>
-      </c>
-      <c r="C174" t="s">
-        <v>110</v>
-      </c>
-      <c r="D174" t="s">
-        <v>147</v>
-      </c>
-      <c r="E174" t="s">
-        <v>7</v>
-      </c>
-      <c r="F174" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175">
-        <v>19330051920025</v>
-      </c>
-      <c r="B175" t="s">
-        <v>86</v>
-      </c>
-      <c r="C175" t="s">
-        <v>110</v>
-      </c>
-      <c r="D175" t="s">
-        <v>147</v>
-      </c>
-      <c r="E175" t="s">
-        <v>9</v>
-      </c>
-      <c r="F175" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176">
-        <v>19330051920025</v>
-      </c>
-      <c r="B176" t="s">
-        <v>86</v>
-      </c>
-      <c r="C176" t="s">
-        <v>110</v>
-      </c>
-      <c r="D176" t="s">
-        <v>147</v>
-      </c>
-      <c r="E176" t="s">
-        <v>11</v>
-      </c>
-      <c r="F176" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177">
-        <v>19330051920027</v>
-      </c>
-      <c r="B177" t="s">
-        <v>86</v>
-      </c>
-      <c r="C177" t="s">
-        <v>100</v>
-      </c>
-      <c r="D177" t="s">
-        <v>148</v>
-      </c>
-      <c r="E177" t="s">
-        <v>10</v>
-      </c>
-      <c r="F177" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178">
-        <v>19330051920027</v>
-      </c>
-      <c r="B178" t="s">
-        <v>86</v>
-      </c>
-      <c r="C178" t="s">
-        <v>100</v>
-      </c>
-      <c r="D178" t="s">
-        <v>148</v>
-      </c>
-      <c r="E178" t="s">
-        <v>5</v>
-      </c>
-      <c r="F178" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179">
-        <v>19330051920027</v>
-      </c>
-      <c r="B179" t="s">
-        <v>86</v>
-      </c>
-      <c r="C179" t="s">
-        <v>100</v>
-      </c>
-      <c r="D179" t="s">
-        <v>148</v>
-      </c>
-      <c r="E179" t="s">
-        <v>6</v>
-      </c>
-      <c r="F179" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180">
-        <v>19330051920027</v>
-      </c>
-      <c r="B180" t="s">
-        <v>86</v>
-      </c>
-      <c r="C180" t="s">
-        <v>100</v>
-      </c>
-      <c r="D180" t="s">
-        <v>148</v>
-      </c>
-      <c r="E180" t="s">
-        <v>8</v>
-      </c>
-      <c r="F180" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181">
-        <v>19330051920027</v>
-      </c>
-      <c r="B181" t="s">
-        <v>86</v>
-      </c>
-      <c r="C181" t="s">
-        <v>100</v>
-      </c>
-      <c r="D181" t="s">
-        <v>148</v>
-      </c>
-      <c r="E181" t="s">
-        <v>7</v>
-      </c>
-      <c r="F181" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182">
-        <v>19330051920027</v>
-      </c>
-      <c r="B182" t="s">
-        <v>86</v>
-      </c>
-      <c r="C182" t="s">
-        <v>100</v>
-      </c>
-      <c r="D182" t="s">
-        <v>148</v>
-      </c>
-      <c r="E182" t="s">
-        <v>9</v>
-      </c>
-      <c r="F182" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183">
-        <v>19330051920027</v>
-      </c>
-      <c r="B183" t="s">
-        <v>86</v>
-      </c>
-      <c r="C183" t="s">
-        <v>100</v>
-      </c>
-      <c r="D183" t="s">
-        <v>148</v>
-      </c>
-      <c r="E183" t="s">
-        <v>11</v>
-      </c>
-      <c r="F183" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184">
-        <v>19330051920024</v>
-      </c>
-      <c r="B184" t="s">
-        <v>88</v>
-      </c>
-      <c r="C184" t="s">
-        <v>118</v>
-      </c>
-      <c r="D184" t="s">
-        <v>149</v>
-      </c>
-      <c r="E184" t="s">
-        <v>10</v>
-      </c>
-      <c r="F184" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185">
-        <v>19330051920024</v>
-      </c>
-      <c r="B185" t="s">
-        <v>88</v>
-      </c>
-      <c r="C185" t="s">
-        <v>118</v>
-      </c>
-      <c r="D185" t="s">
-        <v>149</v>
-      </c>
-      <c r="E185" t="s">
-        <v>5</v>
-      </c>
-      <c r="F185" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="A186">
-        <v>19330051920024</v>
-      </c>
-      <c r="B186" t="s">
-        <v>88</v>
-      </c>
-      <c r="C186" t="s">
-        <v>118</v>
-      </c>
-      <c r="D186" t="s">
-        <v>149</v>
-      </c>
-      <c r="E186" t="s">
-        <v>6</v>
-      </c>
-      <c r="F186" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="A187">
-        <v>19330051920024</v>
-      </c>
-      <c r="B187" t="s">
-        <v>88</v>
-      </c>
-      <c r="C187" t="s">
-        <v>118</v>
-      </c>
-      <c r="D187" t="s">
-        <v>149</v>
-      </c>
-      <c r="E187" t="s">
-        <v>8</v>
-      </c>
-      <c r="F187" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="A188">
-        <v>19330051920024</v>
-      </c>
-      <c r="B188" t="s">
-        <v>88</v>
-      </c>
-      <c r="C188" t="s">
-        <v>118</v>
-      </c>
-      <c r="D188" t="s">
-        <v>149</v>
-      </c>
-      <c r="E188" t="s">
-        <v>7</v>
-      </c>
-      <c r="F188" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="A189">
-        <v>19330051920024</v>
-      </c>
-      <c r="B189" t="s">
-        <v>88</v>
-      </c>
-      <c r="C189" t="s">
-        <v>118</v>
-      </c>
-      <c r="D189" t="s">
-        <v>149</v>
-      </c>
-      <c r="E189" t="s">
-        <v>9</v>
-      </c>
-      <c r="F189" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190">
-        <v>19330051920024</v>
-      </c>
-      <c r="B190" t="s">
-        <v>88</v>
-      </c>
-      <c r="C190" t="s">
-        <v>118</v>
-      </c>
-      <c r="D190" t="s">
-        <v>149</v>
-      </c>
-      <c r="E190" t="s">
-        <v>11</v>
-      </c>
-      <c r="F190" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="A191">
-        <v>19330051920029</v>
-      </c>
-      <c r="B191" t="s">
-        <v>89</v>
-      </c>
-      <c r="C191" t="s">
-        <v>84</v>
-      </c>
-      <c r="D191" t="s">
-        <v>150</v>
-      </c>
-      <c r="E191" t="s">
-        <v>10</v>
-      </c>
-      <c r="F191" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192">
-        <v>19330051920029</v>
-      </c>
-      <c r="B192" t="s">
-        <v>89</v>
-      </c>
-      <c r="C192" t="s">
-        <v>84</v>
-      </c>
-      <c r="D192" t="s">
-        <v>150</v>
-      </c>
-      <c r="E192" t="s">
-        <v>5</v>
-      </c>
-      <c r="F192" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193">
-        <v>19330051920029</v>
-      </c>
-      <c r="B193" t="s">
-        <v>89</v>
-      </c>
-      <c r="C193" t="s">
-        <v>84</v>
-      </c>
-      <c r="D193" t="s">
-        <v>150</v>
-      </c>
-      <c r="E193" t="s">
-        <v>6</v>
-      </c>
-      <c r="F193" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194">
-        <v>19330051920029</v>
-      </c>
-      <c r="B194" t="s">
-        <v>89</v>
-      </c>
-      <c r="C194" t="s">
-        <v>84</v>
-      </c>
-      <c r="D194" t="s">
-        <v>150</v>
-      </c>
-      <c r="E194" t="s">
-        <v>8</v>
-      </c>
-      <c r="F194" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="A195">
-        <v>19330051920029</v>
-      </c>
-      <c r="B195" t="s">
-        <v>89</v>
-      </c>
-      <c r="C195" t="s">
-        <v>84</v>
-      </c>
-      <c r="D195" t="s">
-        <v>150</v>
-      </c>
-      <c r="E195" t="s">
-        <v>7</v>
-      </c>
-      <c r="F195" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="A196">
-        <v>19330051920029</v>
-      </c>
-      <c r="B196" t="s">
-        <v>89</v>
-      </c>
-      <c r="C196" t="s">
-        <v>84</v>
-      </c>
-      <c r="D196" t="s">
-        <v>150</v>
-      </c>
-      <c r="E196" t="s">
-        <v>9</v>
-      </c>
-      <c r="F196" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
-      <c r="A197">
-        <v>19330051920029</v>
-      </c>
-      <c r="B197" t="s">
-        <v>89</v>
-      </c>
-      <c r="C197" t="s">
-        <v>84</v>
-      </c>
-      <c r="D197" t="s">
-        <v>150</v>
-      </c>
-      <c r="E197" t="s">
-        <v>11</v>
-      </c>
-      <c r="F197" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="A198">
-        <v>19330051920030</v>
-      </c>
-      <c r="B198" t="s">
-        <v>89</v>
-      </c>
-      <c r="C198" t="s">
-        <v>89</v>
-      </c>
-      <c r="D198" t="s">
-        <v>151</v>
-      </c>
-      <c r="E198" t="s">
-        <v>10</v>
-      </c>
-      <c r="F198" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="A199">
-        <v>19330051920030</v>
-      </c>
-      <c r="B199" t="s">
-        <v>89</v>
-      </c>
-      <c r="C199" t="s">
-        <v>89</v>
-      </c>
-      <c r="D199" t="s">
-        <v>151</v>
-      </c>
-      <c r="E199" t="s">
-        <v>5</v>
-      </c>
-      <c r="F199" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200">
-        <v>19330051920030</v>
-      </c>
-      <c r="B200" t="s">
-        <v>89</v>
-      </c>
-      <c r="C200" t="s">
-        <v>89</v>
-      </c>
-      <c r="D200" t="s">
-        <v>151</v>
-      </c>
-      <c r="E200" t="s">
-        <v>6</v>
-      </c>
-      <c r="F200" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
-      <c r="A201">
-        <v>19330051920030</v>
-      </c>
-      <c r="B201" t="s">
-        <v>89</v>
-      </c>
-      <c r="C201" t="s">
-        <v>89</v>
-      </c>
-      <c r="D201" t="s">
-        <v>151</v>
-      </c>
-      <c r="E201" t="s">
-        <v>8</v>
-      </c>
-      <c r="F201" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
-      <c r="A202">
-        <v>19330051920030</v>
-      </c>
-      <c r="B202" t="s">
-        <v>89</v>
-      </c>
-      <c r="C202" t="s">
-        <v>89</v>
-      </c>
-      <c r="D202" t="s">
-        <v>151</v>
-      </c>
-      <c r="E202" t="s">
-        <v>7</v>
-      </c>
-      <c r="F202" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
-      <c r="A203">
-        <v>19330051920030</v>
-      </c>
-      <c r="B203" t="s">
-        <v>89</v>
-      </c>
-      <c r="C203" t="s">
-        <v>89</v>
-      </c>
-      <c r="D203" t="s">
-        <v>151</v>
-      </c>
-      <c r="E203" t="s">
-        <v>9</v>
-      </c>
-      <c r="F203" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
-      <c r="A204">
-        <v>19330051920030</v>
-      </c>
-      <c r="B204" t="s">
-        <v>89</v>
-      </c>
-      <c r="C204" t="s">
-        <v>89</v>
-      </c>
-      <c r="D204" t="s">
-        <v>151</v>
-      </c>
-      <c r="E204" t="s">
-        <v>11</v>
-      </c>
-      <c r="F204" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="A205">
-        <v>19330051920032</v>
-      </c>
-      <c r="B205" t="s">
-        <v>90</v>
-      </c>
-      <c r="C205" t="s">
-        <v>119</v>
-      </c>
-      <c r="D205" t="s">
-        <v>152</v>
-      </c>
-      <c r="E205" t="s">
-        <v>10</v>
-      </c>
-      <c r="F205" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
-      <c r="A206">
-        <v>19330051920032</v>
-      </c>
-      <c r="B206" t="s">
-        <v>90</v>
-      </c>
-      <c r="C206" t="s">
-        <v>119</v>
-      </c>
-      <c r="D206" t="s">
-        <v>152</v>
-      </c>
-      <c r="E206" t="s">
-        <v>5</v>
-      </c>
-      <c r="F206" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
-      <c r="A207">
-        <v>19330051920032</v>
-      </c>
-      <c r="B207" t="s">
-        <v>90</v>
-      </c>
-      <c r="C207" t="s">
-        <v>119</v>
-      </c>
-      <c r="D207" t="s">
-        <v>152</v>
-      </c>
-      <c r="E207" t="s">
-        <v>6</v>
-      </c>
-      <c r="F207" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
-      <c r="A208">
-        <v>19330051920032</v>
-      </c>
-      <c r="B208" t="s">
-        <v>90</v>
-      </c>
-      <c r="C208" t="s">
-        <v>119</v>
-      </c>
-      <c r="D208" t="s">
-        <v>152</v>
-      </c>
-      <c r="E208" t="s">
-        <v>8</v>
-      </c>
-      <c r="F208" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
-      <c r="A209">
-        <v>19330051920032</v>
-      </c>
-      <c r="B209" t="s">
-        <v>90</v>
-      </c>
-      <c r="C209" t="s">
-        <v>119</v>
-      </c>
-      <c r="D209" t="s">
-        <v>152</v>
-      </c>
-      <c r="E209" t="s">
-        <v>7</v>
-      </c>
-      <c r="F209" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
-      <c r="A210">
-        <v>19330051920032</v>
-      </c>
-      <c r="B210" t="s">
-        <v>90</v>
-      </c>
-      <c r="C210" t="s">
-        <v>119</v>
-      </c>
-      <c r="D210" t="s">
-        <v>152</v>
-      </c>
-      <c r="E210" t="s">
-        <v>9</v>
-      </c>
-      <c r="F210" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
-      <c r="A211">
-        <v>19330051920032</v>
-      </c>
-      <c r="B211" t="s">
-        <v>90</v>
-      </c>
-      <c r="C211" t="s">
-        <v>119</v>
-      </c>
-      <c r="D211" t="s">
-        <v>152</v>
-      </c>
-      <c r="E211" t="s">
-        <v>11</v>
-      </c>
-      <c r="F211" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
-      <c r="A212">
-        <v>19330051920031</v>
-      </c>
-      <c r="B212" t="s">
-        <v>91</v>
-      </c>
-      <c r="C212" t="s">
-        <v>120</v>
-      </c>
-      <c r="D212" t="s">
-        <v>153</v>
-      </c>
-      <c r="E212" t="s">
-        <v>10</v>
-      </c>
-      <c r="F212" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213">
-        <v>19330051920031</v>
-      </c>
-      <c r="B213" t="s">
-        <v>91</v>
-      </c>
-      <c r="C213" t="s">
-        <v>120</v>
-      </c>
-      <c r="D213" t="s">
-        <v>153</v>
-      </c>
-      <c r="E213" t="s">
-        <v>5</v>
-      </c>
-      <c r="F213" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214">
-        <v>19330051920031</v>
-      </c>
-      <c r="B214" t="s">
-        <v>91</v>
-      </c>
-      <c r="C214" t="s">
-        <v>120</v>
-      </c>
-      <c r="D214" t="s">
-        <v>153</v>
-      </c>
-      <c r="E214" t="s">
-        <v>6</v>
-      </c>
-      <c r="F214" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215">
-        <v>19330051920031</v>
-      </c>
-      <c r="B215" t="s">
-        <v>91</v>
-      </c>
-      <c r="C215" t="s">
-        <v>120</v>
-      </c>
-      <c r="D215" t="s">
-        <v>153</v>
-      </c>
-      <c r="E215" t="s">
-        <v>8</v>
-      </c>
-      <c r="F215" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216">
-        <v>19330051920031</v>
-      </c>
-      <c r="B216" t="s">
-        <v>91</v>
-      </c>
-      <c r="C216" t="s">
-        <v>120</v>
-      </c>
-      <c r="D216" t="s">
-        <v>153</v>
-      </c>
-      <c r="E216" t="s">
-        <v>7</v>
-      </c>
-      <c r="F216" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217">
-        <v>19330051920031</v>
-      </c>
-      <c r="B217" t="s">
-        <v>91</v>
-      </c>
-      <c r="C217" t="s">
-        <v>120</v>
-      </c>
-      <c r="D217" t="s">
-        <v>153</v>
-      </c>
-      <c r="E217" t="s">
-        <v>9</v>
-      </c>
-      <c r="F217" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218">
-        <v>19330051920031</v>
-      </c>
-      <c r="B218" t="s">
-        <v>91</v>
-      </c>
-      <c r="C218" t="s">
-        <v>120</v>
-      </c>
-      <c r="D218" t="s">
-        <v>153</v>
-      </c>
-      <c r="E218" t="s">
-        <v>11</v>
-      </c>
-      <c r="F218" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219">
-        <v>19330051920035</v>
-      </c>
-      <c r="B219" t="s">
-        <v>92</v>
-      </c>
-      <c r="C219" t="s">
-        <v>89</v>
-      </c>
-      <c r="D219" t="s">
-        <v>154</v>
-      </c>
-      <c r="E219" t="s">
-        <v>10</v>
-      </c>
-      <c r="F219" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220">
-        <v>19330051920035</v>
-      </c>
-      <c r="B220" t="s">
-        <v>92</v>
-      </c>
-      <c r="C220" t="s">
-        <v>89</v>
-      </c>
-      <c r="D220" t="s">
-        <v>154</v>
-      </c>
-      <c r="E220" t="s">
-        <v>5</v>
-      </c>
-      <c r="F220" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221">
-        <v>19330051920035</v>
-      </c>
-      <c r="B221" t="s">
-        <v>92</v>
-      </c>
-      <c r="C221" t="s">
-        <v>89</v>
-      </c>
-      <c r="D221" t="s">
-        <v>154</v>
-      </c>
-      <c r="E221" t="s">
-        <v>6</v>
-      </c>
-      <c r="F221" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222">
-        <v>19330051920035</v>
-      </c>
-      <c r="B222" t="s">
-        <v>92</v>
-      </c>
-      <c r="C222" t="s">
-        <v>89</v>
-      </c>
-      <c r="D222" t="s">
-        <v>154</v>
-      </c>
-      <c r="E222" t="s">
-        <v>8</v>
-      </c>
-      <c r="F222" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223">
-        <v>19330051920035</v>
-      </c>
-      <c r="B223" t="s">
-        <v>92</v>
-      </c>
-      <c r="C223" t="s">
-        <v>89</v>
-      </c>
-      <c r="D223" t="s">
-        <v>154</v>
-      </c>
-      <c r="E223" t="s">
-        <v>7</v>
-      </c>
-      <c r="F223" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224">
-        <v>19330051920035</v>
-      </c>
-      <c r="B224" t="s">
-        <v>92</v>
-      </c>
-      <c r="C224" t="s">
-        <v>89</v>
-      </c>
-      <c r="D224" t="s">
-        <v>154</v>
-      </c>
-      <c r="E224" t="s">
-        <v>9</v>
-      </c>
-      <c r="F224" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225">
-        <v>19330051920035</v>
-      </c>
-      <c r="B225" t="s">
-        <v>92</v>
-      </c>
-      <c r="C225" t="s">
-        <v>89</v>
-      </c>
-      <c r="D225" t="s">
-        <v>154</v>
-      </c>
-      <c r="E225" t="s">
-        <v>11</v>
-      </c>
-      <c r="F225" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226">
-        <v>19330051920034</v>
-      </c>
-      <c r="B226" t="s">
-        <v>93</v>
-      </c>
-      <c r="C226" t="s">
-        <v>118</v>
-      </c>
-      <c r="D226" t="s">
-        <v>155</v>
-      </c>
-      <c r="E226" t="s">
-        <v>10</v>
-      </c>
-      <c r="F226" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227">
-        <v>19330051920034</v>
-      </c>
-      <c r="B227" t="s">
-        <v>93</v>
-      </c>
-      <c r="C227" t="s">
-        <v>118</v>
-      </c>
-      <c r="D227" t="s">
-        <v>155</v>
-      </c>
-      <c r="E227" t="s">
-        <v>5</v>
-      </c>
-      <c r="F227" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228">
-        <v>19330051920034</v>
-      </c>
-      <c r="B228" t="s">
-        <v>93</v>
-      </c>
-      <c r="C228" t="s">
-        <v>118</v>
-      </c>
-      <c r="D228" t="s">
-        <v>155</v>
-      </c>
-      <c r="E228" t="s">
-        <v>6</v>
-      </c>
-      <c r="F228" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
-      <c r="A229">
-        <v>19330051920034</v>
-      </c>
-      <c r="B229" t="s">
-        <v>93</v>
-      </c>
-      <c r="C229" t="s">
-        <v>118</v>
-      </c>
-      <c r="D229" t="s">
-        <v>155</v>
-      </c>
-      <c r="E229" t="s">
-        <v>8</v>
-      </c>
-      <c r="F229" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
-      <c r="A230">
-        <v>19330051920034</v>
-      </c>
-      <c r="B230" t="s">
-        <v>93</v>
-      </c>
-      <c r="C230" t="s">
-        <v>118</v>
-      </c>
-      <c r="D230" t="s">
-        <v>155</v>
-      </c>
-      <c r="E230" t="s">
-        <v>7</v>
-      </c>
-      <c r="F230" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
-      <c r="A231">
-        <v>19330051920034</v>
-      </c>
-      <c r="B231" t="s">
-        <v>93</v>
-      </c>
-      <c r="C231" t="s">
-        <v>118</v>
-      </c>
-      <c r="D231" t="s">
-        <v>155</v>
-      </c>
-      <c r="E231" t="s">
-        <v>9</v>
-      </c>
-      <c r="F231" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
-      <c r="A232">
-        <v>19330051920034</v>
-      </c>
-      <c r="B232" t="s">
-        <v>93</v>
-      </c>
-      <c r="C232" t="s">
-        <v>118</v>
-      </c>
-      <c r="D232" t="s">
-        <v>155</v>
-      </c>
-      <c r="E232" t="s">
-        <v>11</v>
-      </c>
-      <c r="F232" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6">
-      <c r="A233">
-        <v>19330051920038</v>
-      </c>
-      <c r="B233" t="s">
-        <v>94</v>
-      </c>
-      <c r="C233" t="s">
-        <v>121</v>
-      </c>
-      <c r="D233" t="s">
-        <v>156</v>
-      </c>
-      <c r="E233" t="s">
-        <v>10</v>
-      </c>
-      <c r="F233" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6">
-      <c r="A234">
-        <v>19330051920038</v>
-      </c>
-      <c r="B234" t="s">
-        <v>94</v>
-      </c>
-      <c r="C234" t="s">
-        <v>121</v>
-      </c>
-      <c r="D234" t="s">
-        <v>156</v>
-      </c>
-      <c r="E234" t="s">
-        <v>5</v>
-      </c>
-      <c r="F234" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6">
-      <c r="A235">
-        <v>19330051920038</v>
-      </c>
-      <c r="B235" t="s">
-        <v>94</v>
-      </c>
-      <c r="C235" t="s">
-        <v>121</v>
-      </c>
-      <c r="D235" t="s">
-        <v>156</v>
-      </c>
-      <c r="E235" t="s">
-        <v>6</v>
-      </c>
-      <c r="F235" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6">
-      <c r="A236">
-        <v>19330051920038</v>
-      </c>
-      <c r="B236" t="s">
-        <v>94</v>
-      </c>
-      <c r="C236" t="s">
-        <v>121</v>
-      </c>
-      <c r="D236" t="s">
-        <v>156</v>
-      </c>
-      <c r="E236" t="s">
-        <v>8</v>
-      </c>
-      <c r="F236" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6">
-      <c r="A237">
-        <v>19330051920038</v>
-      </c>
-      <c r="B237" t="s">
-        <v>94</v>
-      </c>
-      <c r="C237" t="s">
-        <v>121</v>
-      </c>
-      <c r="D237" t="s">
-        <v>156</v>
-      </c>
-      <c r="E237" t="s">
-        <v>7</v>
-      </c>
-      <c r="F237" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6">
-      <c r="A238">
-        <v>19330051920038</v>
-      </c>
-      <c r="B238" t="s">
-        <v>94</v>
-      </c>
-      <c r="C238" t="s">
-        <v>121</v>
-      </c>
-      <c r="D238" t="s">
-        <v>156</v>
-      </c>
-      <c r="E238" t="s">
-        <v>9</v>
-      </c>
-      <c r="F238" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6">
-      <c r="A239">
-        <v>19330051920038</v>
-      </c>
-      <c r="B239" t="s">
-        <v>94</v>
-      </c>
-      <c r="C239" t="s">
-        <v>121</v>
-      </c>
-      <c r="D239" t="s">
-        <v>156</v>
-      </c>
-      <c r="E239" t="s">
-        <v>11</v>
-      </c>
-      <c r="F239" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6">
-      <c r="A240">
-        <v>19330051920037</v>
-      </c>
-      <c r="B240" t="s">
-        <v>95</v>
-      </c>
-      <c r="C240" t="s">
-        <v>122</v>
-      </c>
-      <c r="D240" t="s">
-        <v>157</v>
-      </c>
-      <c r="E240" t="s">
-        <v>10</v>
-      </c>
-      <c r="F240" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6">
-      <c r="A241">
-        <v>19330051920037</v>
-      </c>
-      <c r="B241" t="s">
-        <v>95</v>
-      </c>
-      <c r="C241" t="s">
-        <v>122</v>
-      </c>
-      <c r="D241" t="s">
-        <v>157</v>
-      </c>
-      <c r="E241" t="s">
-        <v>5</v>
-      </c>
-      <c r="F241" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6">
-      <c r="A242">
-        <v>19330051920037</v>
-      </c>
-      <c r="B242" t="s">
-        <v>95</v>
-      </c>
-      <c r="C242" t="s">
-        <v>122</v>
-      </c>
-      <c r="D242" t="s">
-        <v>157</v>
-      </c>
-      <c r="E242" t="s">
-        <v>6</v>
-      </c>
-      <c r="F242" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6">
-      <c r="A243">
-        <v>19330051920037</v>
-      </c>
-      <c r="B243" t="s">
-        <v>95</v>
-      </c>
-      <c r="C243" t="s">
-        <v>122</v>
-      </c>
-      <c r="D243" t="s">
-        <v>157</v>
-      </c>
-      <c r="E243" t="s">
-        <v>8</v>
-      </c>
-      <c r="F243" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6">
-      <c r="A244">
-        <v>19330051920037</v>
-      </c>
-      <c r="B244" t="s">
-        <v>95</v>
-      </c>
-      <c r="C244" t="s">
-        <v>122</v>
-      </c>
-      <c r="D244" t="s">
-        <v>157</v>
-      </c>
-      <c r="E244" t="s">
-        <v>7</v>
-      </c>
-      <c r="F244" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6">
-      <c r="A245">
-        <v>19330051920037</v>
-      </c>
-      <c r="B245" t="s">
-        <v>95</v>
-      </c>
-      <c r="C245" t="s">
-        <v>122</v>
-      </c>
-      <c r="D245" t="s">
-        <v>157</v>
-      </c>
-      <c r="E245" t="s">
-        <v>9</v>
-      </c>
-      <c r="F245" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6">
-      <c r="A246">
-        <v>19330051920037</v>
-      </c>
-      <c r="B246" t="s">
-        <v>95</v>
-      </c>
-      <c r="C246" t="s">
-        <v>122</v>
-      </c>
-      <c r="D246" t="s">
-        <v>157</v>
-      </c>
-      <c r="E246" t="s">
-        <v>11</v>
-      </c>
-      <c r="F246" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6">
-      <c r="A247">
-        <v>19330051920036</v>
-      </c>
-      <c r="B247" t="s">
-        <v>96</v>
-      </c>
-      <c r="C247" t="s">
-        <v>88</v>
-      </c>
-      <c r="D247" t="s">
-        <v>158</v>
-      </c>
-      <c r="E247" t="s">
-        <v>10</v>
-      </c>
-      <c r="F247" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6">
-      <c r="A248">
-        <v>19330051920036</v>
-      </c>
-      <c r="B248" t="s">
-        <v>96</v>
-      </c>
-      <c r="C248" t="s">
-        <v>88</v>
-      </c>
-      <c r="D248" t="s">
-        <v>158</v>
-      </c>
-      <c r="E248" t="s">
-        <v>5</v>
-      </c>
-      <c r="F248" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6">
-      <c r="A249">
-        <v>19330051920036</v>
-      </c>
-      <c r="B249" t="s">
-        <v>96</v>
-      </c>
-      <c r="C249" t="s">
-        <v>88</v>
-      </c>
-      <c r="D249" t="s">
-        <v>158</v>
-      </c>
-      <c r="E249" t="s">
-        <v>6</v>
-      </c>
-      <c r="F249" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6">
-      <c r="A250">
-        <v>19330051920036</v>
-      </c>
-      <c r="B250" t="s">
-        <v>96</v>
-      </c>
-      <c r="C250" t="s">
-        <v>88</v>
-      </c>
-      <c r="D250" t="s">
-        <v>158</v>
-      </c>
-      <c r="E250" t="s">
-        <v>8</v>
-      </c>
-      <c r="F250" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6">
-      <c r="A251">
-        <v>19330051920036</v>
-      </c>
-      <c r="B251" t="s">
-        <v>96</v>
-      </c>
-      <c r="C251" t="s">
-        <v>88</v>
-      </c>
-      <c r="D251" t="s">
-        <v>158</v>
-      </c>
-      <c r="E251" t="s">
-        <v>7</v>
-      </c>
-      <c r="F251" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6">
-      <c r="A252">
-        <v>19330051920036</v>
-      </c>
-      <c r="B252" t="s">
-        <v>96</v>
-      </c>
-      <c r="C252" t="s">
-        <v>88</v>
-      </c>
-      <c r="D252" t="s">
-        <v>158</v>
-      </c>
-      <c r="E252" t="s">
-        <v>9</v>
-      </c>
-      <c r="F252" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6">
-      <c r="A253">
-        <v>19330051920036</v>
-      </c>
-      <c r="B253" t="s">
-        <v>96</v>
-      </c>
-      <c r="C253" t="s">
-        <v>88</v>
-      </c>
-      <c r="D253" t="s">
-        <v>158</v>
-      </c>
-      <c r="E253" t="s">
-        <v>11</v>
-      </c>
-      <c r="F253" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6">
-      <c r="A254">
-        <v>19330051920039</v>
-      </c>
-      <c r="B254" t="s">
-        <v>97</v>
-      </c>
-      <c r="C254" t="s">
-        <v>123</v>
-      </c>
-      <c r="D254" t="s">
-        <v>159</v>
-      </c>
-      <c r="E254" t="s">
-        <v>10</v>
-      </c>
-      <c r="F254" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6">
-      <c r="A255">
-        <v>19330051920039</v>
-      </c>
-      <c r="B255" t="s">
-        <v>97</v>
-      </c>
-      <c r="C255" t="s">
-        <v>123</v>
-      </c>
-      <c r="D255" t="s">
-        <v>159</v>
-      </c>
-      <c r="E255" t="s">
-        <v>5</v>
-      </c>
-      <c r="F255" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6">
-      <c r="A256">
-        <v>19330051920039</v>
-      </c>
-      <c r="B256" t="s">
-        <v>97</v>
-      </c>
-      <c r="C256" t="s">
-        <v>123</v>
-      </c>
-      <c r="D256" t="s">
-        <v>159</v>
-      </c>
-      <c r="E256" t="s">
-        <v>6</v>
-      </c>
-      <c r="F256" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6">
-      <c r="A257">
-        <v>19330051920039</v>
-      </c>
-      <c r="B257" t="s">
-        <v>97</v>
-      </c>
-      <c r="C257" t="s">
-        <v>123</v>
-      </c>
-      <c r="D257" t="s">
-        <v>159</v>
-      </c>
-      <c r="E257" t="s">
-        <v>8</v>
-      </c>
-      <c r="F257" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6">
-      <c r="A258">
-        <v>19330051920039</v>
-      </c>
-      <c r="B258" t="s">
-        <v>97</v>
-      </c>
-      <c r="C258" t="s">
-        <v>123</v>
-      </c>
-      <c r="D258" t="s">
-        <v>159</v>
-      </c>
-      <c r="E258" t="s">
-        <v>7</v>
-      </c>
-      <c r="F258" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6">
-      <c r="A259">
-        <v>19330051920039</v>
-      </c>
-      <c r="B259" t="s">
-        <v>97</v>
-      </c>
-      <c r="C259" t="s">
-        <v>123</v>
-      </c>
-      <c r="D259" t="s">
-        <v>159</v>
-      </c>
-      <c r="E259" t="s">
-        <v>9</v>
-      </c>
-      <c r="F259" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6">
-      <c r="A260">
-        <v>19330051920039</v>
-      </c>
-      <c r="B260" t="s">
-        <v>97</v>
-      </c>
-      <c r="C260" t="s">
-        <v>123</v>
-      </c>
-      <c r="D260" t="s">
-        <v>159</v>
-      </c>
-      <c r="E260" t="s">
-        <v>11</v>
-      </c>
-      <c r="F260" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6">
-      <c r="A261">
-        <v>19330051920040</v>
-      </c>
-      <c r="B261" t="s">
-        <v>98</v>
-      </c>
-      <c r="C261" t="s">
-        <v>122</v>
-      </c>
-      <c r="D261" t="s">
-        <v>129</v>
-      </c>
-      <c r="E261" t="s">
-        <v>10</v>
-      </c>
-      <c r="F261" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6">
-      <c r="A262">
-        <v>19330051920040</v>
-      </c>
-      <c r="B262" t="s">
-        <v>98</v>
-      </c>
-      <c r="C262" t="s">
-        <v>122</v>
-      </c>
-      <c r="D262" t="s">
-        <v>129</v>
-      </c>
-      <c r="E262" t="s">
-        <v>5</v>
-      </c>
-      <c r="F262" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6">
-      <c r="A263">
-        <v>19330051920040</v>
-      </c>
-      <c r="B263" t="s">
-        <v>98</v>
-      </c>
-      <c r="C263" t="s">
-        <v>122</v>
-      </c>
-      <c r="D263" t="s">
-        <v>129</v>
-      </c>
-      <c r="E263" t="s">
-        <v>6</v>
-      </c>
-      <c r="F263" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6">
-      <c r="A264">
-        <v>19330051920040</v>
-      </c>
-      <c r="B264" t="s">
-        <v>98</v>
-      </c>
-      <c r="C264" t="s">
-        <v>122</v>
-      </c>
-      <c r="D264" t="s">
-        <v>129</v>
-      </c>
-      <c r="E264" t="s">
-        <v>8</v>
-      </c>
-      <c r="F264" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6">
-      <c r="A265">
-        <v>19330051920040</v>
-      </c>
-      <c r="B265" t="s">
-        <v>98</v>
-      </c>
-      <c r="C265" t="s">
-        <v>122</v>
-      </c>
-      <c r="D265" t="s">
-        <v>129</v>
-      </c>
-      <c r="E265" t="s">
-        <v>7</v>
-      </c>
-      <c r="F265" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6">
-      <c r="A266">
-        <v>19330051920040</v>
-      </c>
-      <c r="B266" t="s">
-        <v>98</v>
-      </c>
-      <c r="C266" t="s">
-        <v>122</v>
-      </c>
-      <c r="D266" t="s">
-        <v>129</v>
-      </c>
-      <c r="E266" t="s">
-        <v>9</v>
-      </c>
-      <c r="F266" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6">
-      <c r="A267">
-        <v>19330051920040</v>
-      </c>
-      <c r="B267" t="s">
-        <v>98</v>
-      </c>
-      <c r="C267" t="s">
-        <v>122</v>
-      </c>
-      <c r="D267" t="s">
-        <v>129</v>
-      </c>
-      <c r="E267" t="s">
-        <v>11</v>
-      </c>
-      <c r="F267" t="s">
         <v>64</v>
       </c>
     </row>
@@ -10050,648 +6110,648 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>19330051920003</v>
+        <v>19330051920417</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19330051920005</v>
+        <v>19330051920014</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920004</v>
+        <v>19330051920026</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>19330051920006</v>
+        <v>19330051920036</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920417</v>
+        <v>19330051920040</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920007</v>
+        <v>19330051920016</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
         <v>104</v>
       </c>
-      <c r="D7" t="s">
-        <v>128</v>
-      </c>
       <c r="E7">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920008</v>
+        <v>19330051920422</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920014</v>
+        <v>19330051920034</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920016</v>
+        <v>19330051920039</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920015</v>
+        <v>19330051920024</v>
       </c>
       <c r="B11" t="s">
         <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920012</v>
+        <v>19330051920032</v>
       </c>
       <c r="B12" t="s">
         <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920011</v>
+        <v>19330051920010</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920009</v>
+        <v>19330051920022</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E14">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920010</v>
+        <v>19330051920003</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="E15">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920017</v>
+        <v>18330051920168</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="E16">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920018</v>
+        <v>18330061460390</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="E17">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>18330051920168</v>
+        <v>19330051920038</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="E18">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920422</v>
+        <v>19330051920037</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="E19">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920020</v>
+        <v>19330051920005</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="D20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E20">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920022</v>
+        <v>19330051920004</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E21">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920021</v>
+        <v>19330051920006</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D22" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="E22">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920023</v>
+        <v>19330051920007</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="D23" t="s">
         <v>144</v>
       </c>
       <c r="E23">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920026</v>
+        <v>19330051920008</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="D24" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E24">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>18330061460390</v>
+        <v>19330051920015</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="D25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E25">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920025</v>
+        <v>19330051920012</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="D26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E26">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920027</v>
+        <v>19330051920011</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="D27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E27">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920024</v>
+        <v>19330051920009</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E28">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920029</v>
+        <v>19330051920017</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="D29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E29">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19330051920030</v>
+        <v>19330051920018</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="D30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E30">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19330051920032</v>
+        <v>19330051920020</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E31">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>19330051920031</v>
+        <v>19330051920021</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E32">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>19330051920035</v>
+        <v>19330051920023</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E33">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>19330051920034</v>
+        <v>19330051920025</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E34">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>19330051920038</v>
+        <v>19330051920027</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="D35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E35">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>19330051920037</v>
+        <v>19330051920029</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="D36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E36">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>19330051920036</v>
+        <v>19330051920030</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="D37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E37">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>19330051920039</v>
+        <v>19330051920031</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="D38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E38">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>19330051920040</v>
+        <v>19330051920035</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D39" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="E39">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10701,7 +6761,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10742,10 +6802,10 @@
         <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -10759,22 +6819,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920017</v>
+        <v>18330051920168</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -10782,22 +6842,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>18330051920168</v>
+        <v>18330061460390</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -10805,93 +6865,70 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>18330061460390</v>
+        <v>19330051920035</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920035</v>
+        <v>19330051920038</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920038</v>
+        <v>19330051920037</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
         <v>60</v>
       </c>
       <c r="G7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>19330051920037</v>
-      </c>
-      <c r="B8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8">
         <v>-1</v>
       </c>
     </row>
